--- a/test/TEST_FOR_SKYAIRs.xlsx
+++ b/test/TEST_FOR_SKYAIRs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\React SKYAIRs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61C0F9-EBCE-458D-A15C-C910C2B09E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46984DC-3B24-4048-8089-D202C16C41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31365" yWindow="2175" windowWidth="19350" windowHeight="12210" xr2:uid="{E178A011-D998-4B14-882A-725CB391AA49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="203">
   <si>
     <t>Test No</t>
   </si>
@@ -814,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -856,9 +856,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,20 +873,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -936,41 +960,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,140 +1285,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BC9123-7E4D-4274-9B48-E6F967C4CFD0}">
   <dimension ref="A1:M288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="E121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="19"/>
-    <col min="2" max="4" width="28.5" style="16"/>
-    <col min="5" max="5" width="4.8984375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="18"/>
+    <col min="2" max="4" width="28.5" style="15"/>
+    <col min="5" max="5" width="4.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="15" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="12"/>
-    <col min="8" max="9" width="28.5" style="16"/>
-    <col min="10" max="10" width="28.5" style="52"/>
-    <col min="11" max="11" width="28.5" style="17"/>
-    <col min="12" max="16384" width="28.5" style="16"/>
+    <col min="8" max="9" width="28.5" style="15"/>
+    <col min="10" max="10" width="28.5" style="20"/>
+    <col min="11" max="11" width="28.5" style="18"/>
+    <col min="12" max="16384" width="28.5" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="40">
         <v>45206</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="36"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1444,16 +1441,16 @@
       <c r="G8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1472,10 +1469,10 @@
       <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="44"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -1492,10 +1489,10 @@
       <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -1512,10 +1509,10 @@
       <c r="G11" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="44"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1532,10 +1529,10 @@
       <c r="G12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -1552,10 +1549,10 @@
       <c r="G13" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="45"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -1578,16 +1575,16 @@
       <c r="G14" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1606,10 +1603,10 @@
       <c r="G15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="44"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
@@ -1626,10 +1623,10 @@
       <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
@@ -1646,10 +1643,10 @@
       <c r="G17" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="44"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1666,10 +1663,10 @@
       <c r="G18" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="44"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -1686,10 +1683,10 @@
       <c r="G19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="45"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -1712,14 +1709,14 @@
       <c r="G20" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="24" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1738,10 +1735,10 @@
       <c r="G21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="44"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1758,10 +1755,10 @@
       <c r="G22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="44"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
@@ -1778,10 +1775,10 @@
       <c r="G23" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1798,10 +1795,10 @@
       <c r="G24" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -1824,14 +1821,14 @@
       <c r="G25" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="24" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1850,10 +1847,10 @@
       <c r="G26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="44"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -1870,10 +1867,10 @@
       <c r="G27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="44"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
@@ -1890,10 +1887,10 @@
       <c r="G28" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="44"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -1910,10 +1907,10 @@
       <c r="G29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1932,120 +1929,120 @@
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="40">
         <v>45206</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="17"/>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="36"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -2068,14 +2065,14 @@
       <c r="G38" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="29" t="s">
         <v>82</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2094,10 +2091,10 @@
       <c r="G39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="41"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="44"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
@@ -2114,10 +2111,10 @@
       <c r="G40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="44"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
@@ -2134,10 +2131,10 @@
       <c r="G41" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H41" s="41"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
@@ -2160,14 +2157,14 @@
       <c r="G42" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="24" t="s">
+      <c r="I42" s="23"/>
+      <c r="J42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2186,10 +2183,10 @@
       <c r="G43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="44"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -2206,10 +2203,10 @@
       <c r="G44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="44"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
@@ -2226,10 +2223,10 @@
       <c r="G45" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="45"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
@@ -2246,22 +2243,22 @@
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K46" s="43" t="s">
+      <c r="K46" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2280,10 +2277,10 @@
       <c r="G47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="44"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
@@ -2300,10 +2297,10 @@
       <c r="G48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="44"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
@@ -2320,10 +2317,10 @@
       <c r="G49" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="44"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
@@ -2340,10 +2337,10 @@
       <c r="G50" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="45"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2366,16 +2363,16 @@
       <c r="G51" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2394,10 +2391,10 @@
       <c r="G52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="44"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2414,10 +2411,10 @@
       <c r="G53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="44"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -2434,10 +2431,10 @@
       <c r="G54" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="44"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
@@ -2454,10 +2451,10 @@
       <c r="G55" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="45"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
@@ -2466,232 +2463,234 @@
       <c r="B56" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="43">
+      <c r="D56" s="30"/>
+      <c r="E56" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G56" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="24" t="s">
+      <c r="I56" s="23"/>
+      <c r="J56" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="K56" s="43" t="s">
+      <c r="K56" s="23" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="44"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="45"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="28"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="40">
         <v>45207</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="34"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="42"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39" t="s">
+      <c r="F65" s="46"/>
+      <c r="G65" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I65" s="35" t="s">
+      <c r="I65" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J65" s="50" t="s">
+      <c r="J65" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="35" t="s">
+      <c r="K65" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="36"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E74" si="8">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H67" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24" t="s">
+      <c r="I67" s="30"/>
+      <c r="J67" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="K67" s="43"/>
+      <c r="K67" s="23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="48"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="44"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="24"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="2">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -2702,16 +2701,16 @@
       <c r="G69" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="44"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="24"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -2722,16 +2721,16 @@
       <c r="G70" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="44"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="24"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -2742,16 +2741,16 @@
       <c r="G71" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="48"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="44"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -2762,16 +2761,16 @@
       <c r="G72" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="48"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="44"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="24"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -2782,16 +2781,16 @@
       <c r="G73" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="48"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="44"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -2802,16 +2801,16 @@
       <c r="G74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="48"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="44"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="2">
         <f>ROW(F10)</f>
         <v>10</v>
@@ -2822,16 +2821,16 @@
       <c r="G75" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H75" s="48"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="44"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="24"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="2">
         <f t="shared" ref="E76:E79" si="9">ROW(F11)</f>
         <v>11</v>
@@ -2842,16 +2841,16 @@
       <c r="G76" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="48"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="44"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="2">
         <f t="shared" si="9"/>
         <v>12</v>
@@ -2862,16 +2861,16 @@
       <c r="G77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="44"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="24"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="2">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -2882,16 +2881,16 @@
       <c r="G78" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H78" s="48"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="44"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="2">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -2902,10 +2901,10 @@
       <c r="G79" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="45"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
@@ -2924,20 +2923,22 @@
         <f t="shared" ref="E80:E87" si="10">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H80" s="29" t="s">
         <v>91</v>
       </c>
       <c r="I80" s="22"/>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K80" s="43"/>
+      <c r="K80" s="23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
@@ -2948,16 +2949,16 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H81" s="41"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="22"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="44"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="24"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
@@ -2974,10 +2975,10 @@
       <c r="G82" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="41"/>
+      <c r="H82" s="29"/>
       <c r="I82" s="22"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="44"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
@@ -2994,10 +2995,10 @@
       <c r="G83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="41"/>
+      <c r="H83" s="29"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="44"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="24"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
@@ -3014,10 +3015,10 @@
       <c r="G84" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H84" s="41"/>
+      <c r="H84" s="29"/>
       <c r="I84" s="22"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="44"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
@@ -3034,10 +3035,10 @@
       <c r="G85" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H85" s="41"/>
+      <c r="H85" s="29"/>
       <c r="I85" s="22"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="44"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
@@ -3054,10 +3055,10 @@
       <c r="G86" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="41"/>
+      <c r="H86" s="29"/>
       <c r="I86" s="22"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="44"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
@@ -3074,10 +3075,10 @@
       <c r="G87" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H87" s="41"/>
+      <c r="H87" s="29"/>
       <c r="I87" s="22"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="44"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
@@ -3094,10 +3095,10 @@
       <c r="G88" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="41"/>
+      <c r="H88" s="29"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="44"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
@@ -3114,10 +3115,10 @@
       <c r="G89" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="41"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="22"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="44"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
@@ -3134,10 +3135,10 @@
       <c r="G90" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H90" s="41"/>
+      <c r="H90" s="29"/>
       <c r="I90" s="22"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="44"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="24"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
@@ -3154,10 +3155,10 @@
       <c r="G91" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H91" s="41"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="22"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="45"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="25"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -3176,20 +3177,22 @@
         <f t="shared" ref="E92:E99" si="11">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="29" t="s">
         <v>199</v>
       </c>
       <c r="I92" s="22"/>
-      <c r="J92" s="24" t="s">
+      <c r="J92" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="K92" s="43"/>
+      <c r="K92" s="23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
@@ -3200,16 +3203,16 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="41"/>
+      <c r="H93" s="29"/>
       <c r="I93" s="22"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="44"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
@@ -3226,10 +3229,10 @@
       <c r="G94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H94" s="41"/>
+      <c r="H94" s="29"/>
       <c r="I94" s="22"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="44"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="24"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -3246,10 +3249,10 @@
       <c r="G95" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="41"/>
+      <c r="H95" s="29"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="44"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="24"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
@@ -3266,10 +3269,10 @@
       <c r="G96" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="41"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="44"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="24"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
@@ -3286,10 +3289,10 @@
       <c r="G97" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="41"/>
+      <c r="H97" s="29"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="44"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="24"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
@@ -3306,10 +3309,10 @@
       <c r="G98" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H98" s="41"/>
+      <c r="H98" s="29"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="44"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="24"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
@@ -3326,10 +3329,10 @@
       <c r="G99" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H99" s="41"/>
+      <c r="H99" s="29"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="44"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="24"/>
     </row>
     <row r="100" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
@@ -3346,10 +3349,10 @@
       <c r="G100" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H100" s="41"/>
+      <c r="H100" s="29"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="44"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="24"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
@@ -3366,10 +3369,10 @@
       <c r="G101" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H101" s="41"/>
+      <c r="H101" s="29"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="44"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="24"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
@@ -3386,10 +3389,10 @@
       <c r="G102" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H102" s="41"/>
+      <c r="H102" s="29"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="44"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="24"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
@@ -3406,10 +3409,10 @@
       <c r="G103" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H103" s="41"/>
+      <c r="H103" s="29"/>
       <c r="I103" s="22"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="44"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="24"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
@@ -3426,10 +3429,10 @@
       <c r="G104" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="41"/>
+      <c r="H104" s="29"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="45"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="25"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -3448,20 +3451,22 @@
         <f t="shared" ref="E105:E112" si="13">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="H105" s="29" t="s">
         <v>91</v>
       </c>
       <c r="I105" s="22"/>
-      <c r="J105" s="24" t="s">
+      <c r="J105" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K105" s="43"/>
+      <c r="K105" s="23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
@@ -3472,16 +3477,16 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="41"/>
+      <c r="H106" s="29"/>
       <c r="I106" s="22"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="44"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
@@ -3498,10 +3503,10 @@
       <c r="G107" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H107" s="41"/>
+      <c r="H107" s="29"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="44"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="24"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
@@ -3518,10 +3523,10 @@
       <c r="G108" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H108" s="41"/>
+      <c r="H108" s="29"/>
       <c r="I108" s="22"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="44"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="24"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
@@ -3538,10 +3543,10 @@
       <c r="G109" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H109" s="41"/>
+      <c r="H109" s="29"/>
       <c r="I109" s="22"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="44"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="24"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
@@ -3558,10 +3563,10 @@
       <c r="G110" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="41"/>
+      <c r="H110" s="29"/>
       <c r="I110" s="22"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="44"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="24"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
@@ -3578,10 +3583,10 @@
       <c r="G111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H111" s="41"/>
+      <c r="H111" s="29"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="44"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="24"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
@@ -3598,10 +3603,10 @@
       <c r="G112" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H112" s="41"/>
+      <c r="H112" s="29"/>
       <c r="I112" s="22"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="44"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="24"/>
     </row>
     <row r="113" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
@@ -3618,10 +3623,10 @@
       <c r="G113" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H113" s="41"/>
+      <c r="H113" s="29"/>
       <c r="I113" s="22"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="44"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="24"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
@@ -3638,10 +3643,10 @@
       <c r="G114" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="41"/>
+      <c r="H114" s="29"/>
       <c r="I114" s="22"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="44"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="24"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
@@ -3658,10 +3663,10 @@
       <c r="G115" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H115" s="41"/>
+      <c r="H115" s="29"/>
       <c r="I115" s="22"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="44"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="24"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
@@ -3678,10 +3683,10 @@
       <c r="G116" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H116" s="41"/>
+      <c r="H116" s="29"/>
       <c r="I116" s="22"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="45"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="25"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
@@ -3696,34 +3701,36 @@
       <c r="D117" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E117" s="43">
+      <c r="E117" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F117" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="47" t="s">
+      <c r="F117" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="41" t="s">
+      <c r="H117" s="29" t="s">
         <v>93</v>
       </c>
       <c r="I117" s="21"/>
       <c r="J117" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K117" s="21"/>
+      <c r="K117" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="41"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="29"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
       <c r="K118" s="21"/>
@@ -3733,10 +3740,10 @@
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="41"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="29"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
       <c r="K119" s="21"/>
@@ -3754,17 +3761,17 @@
       <c r="D120" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E120" s="43">
+      <c r="E120" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F120" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G120" s="47" t="s">
+      <c r="F120" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H120" s="41" t="s">
+      <c r="H120" s="29" t="s">
         <v>133</v>
       </c>
       <c r="I120" s="21" t="s">
@@ -3773,17 +3780,19 @@
       <c r="J120" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K120" s="21"/>
+      <c r="K120" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="41"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
       <c r="K121" s="21"/>
@@ -3793,10 +3802,10 @@
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="41"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="29"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
       <c r="K122" s="21"/>
@@ -3814,56 +3823,58 @@
       <c r="D123" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E123" s="43">
+      <c r="E123" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F123" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G123" s="47" t="s">
+      <c r="F123" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G123" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H123" s="41" t="s">
+      <c r="H123" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I123" s="43"/>
-      <c r="J123" s="24" t="s">
+      <c r="I123" s="23"/>
+      <c r="J123" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="K123" s="43"/>
+      <c r="K123" s="23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="44"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="24"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="45"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="25"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="30" t="s">
         <v>95</v>
       </c>
       <c r="C126" s="22" t="s">
@@ -3882,44 +3893,46 @@
       <c r="G126" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H126" s="41" t="s">
+      <c r="H126" s="29" t="s">
         <v>200</v>
       </c>
       <c r="I126" s="21"/>
       <c r="J126" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K126" s="21"/>
+      <c r="K126" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
-      <c r="B127" s="46"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
-      <c r="E127" s="43">
+      <c r="E127" s="23">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F127" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" s="47" t="s">
+      <c r="F127" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H127" s="41"/>
+      <c r="H127" s="29"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
       <c r="K127" s="21"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
-      <c r="B128" s="25"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="41"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="29"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
       <c r="K128" s="21"/>
@@ -3947,14 +3960,16 @@
       <c r="G129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H129" s="41" t="s">
+      <c r="H129" s="29" t="s">
         <v>200</v>
       </c>
       <c r="I129" s="21"/>
       <c r="J129" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K129" s="21"/>
+      <c r="K129" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
@@ -3971,7 +3986,7 @@
       <c r="G130" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H130" s="41"/>
+      <c r="H130" s="29"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
       <c r="K130" s="21"/>
@@ -3991,7 +4006,7 @@
       <c r="G131" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="41"/>
+      <c r="H131" s="29"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
       <c r="K131" s="21"/>
@@ -4019,14 +4034,16 @@
       <c r="G132" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H132" s="41" t="s">
+      <c r="H132" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I132" s="42"/>
+      <c r="I132" s="33"/>
       <c r="J132" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K132" s="42"/>
+      <c r="K132" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
@@ -4043,10 +4060,10 @@
       <c r="G133" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="42"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="33"/>
       <c r="J133" s="22"/>
-      <c r="K133" s="42"/>
+      <c r="K133" s="21"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -4063,10 +4080,10 @@
       <c r="G134" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H134" s="41"/>
-      <c r="I134" s="42"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="33"/>
       <c r="J134" s="22"/>
-      <c r="K134" s="42"/>
+      <c r="K134" s="21"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
@@ -4083,10 +4100,10 @@
       <c r="G135" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="42"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="33"/>
       <c r="J135" s="22"/>
-      <c r="K135" s="42"/>
+      <c r="K135" s="21"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
@@ -4103,10 +4120,10 @@
       <c r="G136" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H136" s="41"/>
-      <c r="I136" s="42"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="33"/>
       <c r="J136" s="22"/>
-      <c r="K136" s="42"/>
+      <c r="K136" s="21"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
@@ -4131,14 +4148,16 @@
       <c r="G137" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H137" s="41" t="s">
+      <c r="H137" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I137" s="42"/>
+      <c r="I137" s="33"/>
       <c r="J137" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K137" s="42"/>
+      <c r="K137" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
@@ -4155,10 +4174,10 @@
       <c r="G138" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H138" s="41"/>
-      <c r="I138" s="42"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="33"/>
       <c r="J138" s="22"/>
-      <c r="K138" s="42"/>
+      <c r="K138" s="21"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
@@ -4175,10 +4194,10 @@
       <c r="G139" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H139" s="41"/>
-      <c r="I139" s="42"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="33"/>
       <c r="J139" s="22"/>
-      <c r="K139" s="42"/>
+      <c r="K139" s="21"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
@@ -4195,10 +4214,10 @@
       <c r="G140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H140" s="41"/>
-      <c r="I140" s="42"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="33"/>
       <c r="J140" s="22"/>
-      <c r="K140" s="42"/>
+      <c r="K140" s="21"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
@@ -4215,10 +4234,10 @@
       <c r="G141" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H141" s="41"/>
-      <c r="I141" s="42"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="33"/>
       <c r="J141" s="22"/>
-      <c r="K141" s="42"/>
+      <c r="K141" s="21"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
@@ -4235,10 +4254,10 @@
       <c r="G142" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H142" s="41"/>
-      <c r="I142" s="42"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="33"/>
       <c r="J142" s="22"/>
-      <c r="K142" s="42"/>
+      <c r="K142" s="21"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
@@ -4263,14 +4282,16 @@
       <c r="G143" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H143" s="41" t="s">
+      <c r="H143" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I143" s="42"/>
+      <c r="I143" s="33"/>
       <c r="J143" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K143" s="42"/>
+      <c r="K143" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
@@ -4287,10 +4308,10 @@
       <c r="G144" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H144" s="41"/>
-      <c r="I144" s="42"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="33"/>
       <c r="J144" s="22"/>
-      <c r="K144" s="42"/>
+      <c r="K144" s="21"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
@@ -4307,10 +4328,10 @@
       <c r="G145" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H145" s="41"/>
-      <c r="I145" s="42"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="33"/>
       <c r="J145" s="22"/>
-      <c r="K145" s="42"/>
+      <c r="K145" s="21"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
@@ -4327,10 +4348,10 @@
       <c r="G146" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H146" s="41"/>
-      <c r="I146" s="42"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="33"/>
       <c r="J146" s="22"/>
-      <c r="K146" s="42"/>
+      <c r="K146" s="21"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
@@ -4347,10 +4368,10 @@
       <c r="G147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H147" s="41"/>
-      <c r="I147" s="42"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="33"/>
       <c r="J147" s="22"/>
-      <c r="K147" s="42"/>
+      <c r="K147" s="21"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
@@ -4367,10 +4388,10 @@
       <c r="G148" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H148" s="41"/>
-      <c r="I148" s="42"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="33"/>
       <c r="J148" s="22"/>
-      <c r="K148" s="42"/>
+      <c r="K148" s="21"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
@@ -4387,10 +4408,10 @@
       <c r="G149" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H149" s="41"/>
-      <c r="I149" s="42"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="33"/>
       <c r="J149" s="22"/>
-      <c r="K149" s="42"/>
+      <c r="K149" s="21"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
@@ -4415,14 +4436,16 @@
       <c r="G150" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H150" s="41" t="s">
+      <c r="H150" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I150" s="42"/>
+      <c r="I150" s="33"/>
       <c r="J150" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="K150" s="42"/>
+      <c r="K150" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
@@ -4439,10 +4462,10 @@
       <c r="G151" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H151" s="41"/>
-      <c r="I151" s="42"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="33"/>
       <c r="J151" s="22"/>
-      <c r="K151" s="42"/>
+      <c r="K151" s="21"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
@@ -4459,10 +4482,10 @@
       <c r="G152" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H152" s="41"/>
-      <c r="I152" s="42"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="33"/>
       <c r="J152" s="22"/>
-      <c r="K152" s="42"/>
+      <c r="K152" s="21"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
@@ -4479,10 +4502,10 @@
       <c r="G153" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H153" s="41"/>
-      <c r="I153" s="42"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="33"/>
       <c r="J153" s="22"/>
-      <c r="K153" s="42"/>
+      <c r="K153" s="21"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
@@ -4499,10 +4522,10 @@
       <c r="G154" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H154" s="41"/>
-      <c r="I154" s="42"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="33"/>
       <c r="J154" s="22"/>
-      <c r="K154" s="42"/>
+      <c r="K154" s="21"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
@@ -4519,10 +4542,10 @@
       <c r="G155" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H155" s="41"/>
-      <c r="I155" s="42"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="33"/>
       <c r="J155" s="22"/>
-      <c r="K155" s="42"/>
+      <c r="K155" s="21"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
@@ -4539,10 +4562,10 @@
       <c r="G156" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H156" s="41"/>
-      <c r="I156" s="42"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="33"/>
       <c r="J156" s="22"/>
-      <c r="K156" s="42"/>
+      <c r="K156" s="21"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
@@ -4567,14 +4590,16 @@
       <c r="G157" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H157" s="41" t="s">
+      <c r="H157" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I157" s="42"/>
+      <c r="I157" s="33"/>
       <c r="J157" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K157" s="42"/>
+      <c r="K157" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
@@ -4591,10 +4616,10 @@
       <c r="G158" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H158" s="41"/>
-      <c r="I158" s="42"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="33"/>
       <c r="J158" s="22"/>
-      <c r="K158" s="42"/>
+      <c r="K158" s="21"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
@@ -4611,10 +4636,10 @@
       <c r="G159" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H159" s="41"/>
-      <c r="I159" s="42"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="33"/>
       <c r="J159" s="22"/>
-      <c r="K159" s="42"/>
+      <c r="K159" s="21"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
@@ -4631,10 +4656,10 @@
       <c r="G160" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H160" s="41"/>
-      <c r="I160" s="42"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="33"/>
       <c r="J160" s="22"/>
-      <c r="K160" s="42"/>
+      <c r="K160" s="21"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
@@ -4651,10 +4676,10 @@
       <c r="G161" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H161" s="41"/>
-      <c r="I161" s="42"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="33"/>
       <c r="J161" s="22"/>
-      <c r="K161" s="42"/>
+      <c r="K161" s="21"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
@@ -4671,10 +4696,10 @@
       <c r="G162" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H162" s="41"/>
-      <c r="I162" s="42"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="33"/>
       <c r="J162" s="22"/>
-      <c r="K162" s="42"/>
+      <c r="K162" s="21"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
@@ -4691,10 +4716,10 @@
       <c r="G163" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H163" s="41"/>
-      <c r="I163" s="42"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="33"/>
       <c r="J163" s="22"/>
-      <c r="K163" s="42"/>
+      <c r="K163" s="21"/>
     </row>
     <row r="164" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -4722,11 +4747,13 @@
       <c r="H164" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I164" s="15"/>
+      <c r="I164" s="14"/>
       <c r="J164" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K164" s="14"/>
+      <c r="K164" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="165" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -4754,189 +4781,191 @@
       <c r="H165" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I165" s="15"/>
+      <c r="I165" s="14"/>
       <c r="J165" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K165" s="14"/>
+      <c r="K165" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E166" s="16"/>
-      <c r="G166" s="16"/>
+      <c r="E166" s="15"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="28"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="28"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
-      <c r="I169" s="30"/>
-      <c r="J169" s="30"/>
-      <c r="K169" s="31"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="38"/>
+      <c r="J169" s="38"/>
+      <c r="K169" s="39"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="32">
+      <c r="B170" s="40">
         <v>45208</v>
       </c>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="33"/>
-      <c r="K170" s="34"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="42"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E172" s="37" t="s">
+      <c r="E172" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="38"/>
-      <c r="G172" s="39" t="s">
+      <c r="F172" s="46"/>
+      <c r="G172" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H172" s="39" t="s">
+      <c r="H172" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I172" s="35" t="s">
+      <c r="I172" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J172" s="50" t="s">
+      <c r="J172" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K172" s="35" t="s">
+      <c r="K172" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
       <c r="E173" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G173" s="40"/>
-      <c r="H173" s="40"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="51"/>
-      <c r="K173" s="36"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="44"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="44"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D174" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E174" s="2">
         <f t="shared" ref="E174:E181" si="18">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F174" s="15" t="s">
+      <c r="F174" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H174" s="47" t="s">
+      <c r="H174" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="43"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="23"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="46"/>
-      <c r="D175" s="46"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
       <c r="E175" s="2">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="F175" s="18" t="s">
+      <c r="F175" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H175" s="48"/>
-      <c r="I175" s="46"/>
-      <c r="J175" s="46"/>
-      <c r="K175" s="44"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="31"/>
+      <c r="J175" s="31"/>
+      <c r="K175" s="24"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="46"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="2">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -4947,16 +4976,16 @@
       <c r="G176" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H176" s="48"/>
-      <c r="I176" s="46"/>
-      <c r="J176" s="46"/>
-      <c r="K176" s="44"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="31"/>
+      <c r="J176" s="31"/>
+      <c r="K176" s="24"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="46"/>
-      <c r="C177" s="46"/>
-      <c r="D177" s="46"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
       <c r="E177" s="2">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -4967,16 +4996,16 @@
       <c r="G177" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H177" s="48"/>
-      <c r="I177" s="46"/>
-      <c r="J177" s="46"/>
-      <c r="K177" s="44"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="31"/>
+      <c r="K177" s="24"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="46"/>
-      <c r="C178" s="46"/>
-      <c r="D178" s="46"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
       <c r="E178" s="2">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -4987,16 +5016,16 @@
       <c r="G178" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H178" s="48"/>
-      <c r="I178" s="46"/>
-      <c r="J178" s="46"/>
-      <c r="K178" s="44"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
+      <c r="K178" s="24"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
       <c r="E179" s="2">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -5007,16 +5036,16 @@
       <c r="G179" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H179" s="48"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="44"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="24"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="46"/>
-      <c r="C180" s="46"/>
-      <c r="D180" s="46"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
       <c r="E180" s="2">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -5027,16 +5056,16 @@
       <c r="G180" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="48"/>
-      <c r="I180" s="46"/>
-      <c r="J180" s="46"/>
-      <c r="K180" s="44"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="24"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="46"/>
-      <c r="C181" s="46"/>
-      <c r="D181" s="46"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="2">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -5047,16 +5076,16 @@
       <c r="G181" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H181" s="48"/>
-      <c r="I181" s="46"/>
-      <c r="J181" s="46"/>
-      <c r="K181" s="44"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="24"/>
     </row>
     <row r="182" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="46"/>
-      <c r="C182" s="46"/>
-      <c r="D182" s="46"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
       <c r="E182" s="2">
         <f>ROW(F10)</f>
         <v>10</v>
@@ -5067,16 +5096,16 @@
       <c r="G182" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H182" s="48"/>
-      <c r="I182" s="46"/>
-      <c r="J182" s="46"/>
-      <c r="K182" s="44"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="24"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
-      <c r="B183" s="46"/>
-      <c r="C183" s="46"/>
-      <c r="D183" s="46"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
       <c r="E183" s="2">
         <f>ROW(F11)</f>
         <v>11</v>
@@ -5087,16 +5116,16 @@
       <c r="G183" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H183" s="48"/>
-      <c r="I183" s="46"/>
-      <c r="J183" s="46"/>
-      <c r="K183" s="44"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="31"/>
+      <c r="J183" s="31"/>
+      <c r="K183" s="24"/>
     </row>
     <row r="184" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
-      <c r="B184" s="46"/>
-      <c r="C184" s="46"/>
-      <c r="D184" s="46"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
       <c r="E184" s="2">
         <f>ROW(F12)</f>
         <v>12</v>
@@ -5107,16 +5136,16 @@
       <c r="G184" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H184" s="48"/>
-      <c r="I184" s="46"/>
-      <c r="J184" s="46"/>
-      <c r="K184" s="44"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31"/>
+      <c r="K184" s="24"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
-      <c r="B185" s="46"/>
-      <c r="C185" s="46"/>
-      <c r="D185" s="46"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
       <c r="E185" s="2">
         <f>ROW(F14)</f>
         <v>14</v>
@@ -5127,16 +5156,16 @@
       <c r="G185" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H185" s="48"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="44"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="31"/>
+      <c r="J185" s="31"/>
+      <c r="K185" s="24"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
-      <c r="B186" s="46"/>
-      <c r="C186" s="46"/>
-      <c r="D186" s="46"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="2">
         <f t="shared" ref="E186:E187" si="19">ROW(F16)</f>
         <v>16</v>
@@ -5147,16 +5176,16 @@
       <c r="G186" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H186" s="48"/>
-      <c r="I186" s="46"/>
-      <c r="J186" s="46"/>
-      <c r="K186" s="44"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="24"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="45"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
       <c r="E187" s="2">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -5167,13 +5196,13 @@
       <c r="G187" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H187" s="49"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="45"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
+      <c r="K187" s="25"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B188" s="22" t="s">
@@ -5189,21 +5218,21 @@
         <f t="shared" ref="E188:E195" si="20">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F188" s="15" t="s">
+      <c r="F188" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H188" s="41" t="s">
+      <c r="H188" s="29" t="s">
         <v>155</v>
       </c>
       <c r="I188" s="22"/>
-      <c r="J188" s="24"/>
-      <c r="K188" s="43"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="23"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="44"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
@@ -5211,19 +5240,19 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="F189" s="18" t="s">
+      <c r="F189" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G189" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H189" s="41"/>
+      <c r="H189" s="29"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="46"/>
-      <c r="K189" s="44"/>
+      <c r="J189" s="31"/>
+      <c r="K189" s="24"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
@@ -5237,13 +5266,13 @@
       <c r="G190" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H190" s="41"/>
+      <c r="H190" s="29"/>
       <c r="I190" s="22"/>
-      <c r="J190" s="46"/>
-      <c r="K190" s="44"/>
+      <c r="J190" s="31"/>
+      <c r="K190" s="24"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
@@ -5257,13 +5286,13 @@
       <c r="G191" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H191" s="41"/>
+      <c r="H191" s="29"/>
       <c r="I191" s="22"/>
-      <c r="J191" s="46"/>
-      <c r="K191" s="44"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="24"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
@@ -5277,13 +5306,13 @@
       <c r="G192" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H192" s="41"/>
+      <c r="H192" s="29"/>
       <c r="I192" s="22"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="44"/>
+      <c r="J192" s="31"/>
+      <c r="K192" s="24"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
@@ -5297,13 +5326,13 @@
       <c r="G193" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H193" s="41"/>
+      <c r="H193" s="29"/>
       <c r="I193" s="22"/>
-      <c r="J193" s="46"/>
-      <c r="K193" s="44"/>
+      <c r="J193" s="31"/>
+      <c r="K193" s="24"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
@@ -5317,13 +5346,13 @@
       <c r="G194" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H194" s="41"/>
+      <c r="H194" s="29"/>
       <c r="I194" s="22"/>
-      <c r="J194" s="46"/>
-      <c r="K194" s="44"/>
+      <c r="J194" s="31"/>
+      <c r="K194" s="24"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
@@ -5337,13 +5366,13 @@
       <c r="G195" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H195" s="41"/>
+      <c r="H195" s="29"/>
       <c r="I195" s="22"/>
-      <c r="J195" s="46"/>
-      <c r="K195" s="44"/>
+      <c r="J195" s="31"/>
+      <c r="K195" s="24"/>
     </row>
     <row r="196" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A196" s="44"/>
+      <c r="A196" s="24"/>
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
@@ -5357,13 +5386,13 @@
       <c r="G196" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H196" s="41"/>
+      <c r="H196" s="29"/>
       <c r="I196" s="22"/>
-      <c r="J196" s="46"/>
-      <c r="K196" s="44"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="24"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="44"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
@@ -5377,13 +5406,13 @@
       <c r="G197" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H197" s="41"/>
+      <c r="H197" s="29"/>
       <c r="I197" s="22"/>
-      <c r="J197" s="46"/>
-      <c r="K197" s="44"/>
+      <c r="J197" s="31"/>
+      <c r="K197" s="24"/>
     </row>
     <row r="198" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
@@ -5397,13 +5426,13 @@
       <c r="G198" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H198" s="41"/>
+      <c r="H198" s="29"/>
       <c r="I198" s="22"/>
-      <c r="J198" s="46"/>
-      <c r="K198" s="44"/>
+      <c r="J198" s="31"/>
+      <c r="K198" s="24"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="44"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
@@ -5417,13 +5446,13 @@
       <c r="G199" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H199" s="41"/>
+      <c r="H199" s="29"/>
       <c r="I199" s="22"/>
-      <c r="J199" s="46"/>
-      <c r="K199" s="44"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="24"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="44"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
@@ -5437,13 +5466,13 @@
       <c r="G200" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H200" s="41"/>
+      <c r="H200" s="29"/>
       <c r="I200" s="22"/>
-      <c r="J200" s="46"/>
-      <c r="K200" s="44"/>
+      <c r="J200" s="31"/>
+      <c r="K200" s="24"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="45"/>
+      <c r="A201" s="25"/>
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
@@ -5457,13 +5486,13 @@
       <c r="G201" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H201" s="41"/>
+      <c r="H201" s="29"/>
       <c r="I201" s="22"/>
-      <c r="J201" s="25"/>
-      <c r="K201" s="45"/>
+      <c r="J201" s="32"/>
+      <c r="K201" s="25"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="23" t="s">
         <v>138</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -5479,21 +5508,21 @@
         <f t="shared" ref="E202:E209" si="22">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F202" s="15" t="s">
+      <c r="F202" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H202" s="41" t="s">
+      <c r="H202" s="29" t="s">
         <v>202</v>
       </c>
       <c r="I202" s="22"/>
-      <c r="J202" s="24"/>
-      <c r="K202" s="43"/>
+      <c r="J202" s="30"/>
+      <c r="K202" s="23"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
@@ -5501,19 +5530,19 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="F203" s="15" t="s">
+      <c r="F203" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H203" s="41"/>
+      <c r="H203" s="29"/>
       <c r="I203" s="22"/>
-      <c r="J203" s="46"/>
-      <c r="K203" s="44"/>
+      <c r="J203" s="31"/>
+      <c r="K203" s="24"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
@@ -5527,13 +5556,13 @@
       <c r="G204" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H204" s="41"/>
+      <c r="H204" s="29"/>
       <c r="I204" s="22"/>
-      <c r="J204" s="46"/>
-      <c r="K204" s="44"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="24"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
@@ -5547,13 +5576,13 @@
       <c r="G205" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H205" s="41"/>
+      <c r="H205" s="29"/>
       <c r="I205" s="22"/>
-      <c r="J205" s="46"/>
-      <c r="K205" s="44"/>
+      <c r="J205" s="31"/>
+      <c r="K205" s="24"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
@@ -5567,13 +5596,13 @@
       <c r="G206" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H206" s="41"/>
+      <c r="H206" s="29"/>
       <c r="I206" s="22"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="44"/>
+      <c r="J206" s="31"/>
+      <c r="K206" s="24"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
@@ -5587,13 +5616,13 @@
       <c r="G207" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H207" s="41"/>
+      <c r="H207" s="29"/>
       <c r="I207" s="22"/>
-      <c r="J207" s="46"/>
-      <c r="K207" s="44"/>
+      <c r="J207" s="31"/>
+      <c r="K207" s="24"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="44"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
@@ -5607,13 +5636,13 @@
       <c r="G208" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H208" s="41"/>
+      <c r="H208" s="29"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="46"/>
-      <c r="K208" s="44"/>
+      <c r="J208" s="31"/>
+      <c r="K208" s="24"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
@@ -5627,13 +5656,13 @@
       <c r="G209" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H209" s="41"/>
+      <c r="H209" s="29"/>
       <c r="I209" s="22"/>
-      <c r="J209" s="46"/>
-      <c r="K209" s="44"/>
+      <c r="J209" s="31"/>
+      <c r="K209" s="24"/>
     </row>
     <row r="210" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="44"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
@@ -5647,13 +5676,13 @@
       <c r="G210" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H210" s="41"/>
+      <c r="H210" s="29"/>
       <c r="I210" s="22"/>
-      <c r="J210" s="46"/>
-      <c r="K210" s="44"/>
+      <c r="J210" s="31"/>
+      <c r="K210" s="24"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
@@ -5667,13 +5696,13 @@
       <c r="G211" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H211" s="41"/>
+      <c r="H211" s="29"/>
       <c r="I211" s="22"/>
-      <c r="J211" s="46"/>
-      <c r="K211" s="44"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="24"/>
     </row>
     <row r="212" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A212" s="44"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
@@ -5687,13 +5716,13 @@
       <c r="G212" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H212" s="41"/>
+      <c r="H212" s="29"/>
       <c r="I212" s="22"/>
-      <c r="J212" s="46"/>
-      <c r="K212" s="44"/>
+      <c r="J212" s="31"/>
+      <c r="K212" s="24"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
@@ -5707,13 +5736,13 @@
       <c r="G213" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H213" s="41"/>
+      <c r="H213" s="29"/>
       <c r="I213" s="22"/>
-      <c r="J213" s="46"/>
-      <c r="K213" s="44"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="24"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="44"/>
+      <c r="A214" s="24"/>
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
@@ -5727,13 +5756,13 @@
       <c r="G214" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H214" s="41"/>
+      <c r="H214" s="29"/>
       <c r="I214" s="22"/>
-      <c r="J214" s="46"/>
-      <c r="K214" s="44"/>
+      <c r="J214" s="31"/>
+      <c r="K214" s="24"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="45"/>
+      <c r="A215" s="25"/>
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
@@ -5747,13 +5776,13 @@
       <c r="G215" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H215" s="41"/>
+      <c r="H215" s="29"/>
       <c r="I215" s="22"/>
-      <c r="J215" s="25"/>
-      <c r="K215" s="45"/>
+      <c r="J215" s="32"/>
+      <c r="K215" s="25"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B216" s="22" t="s">
@@ -5769,21 +5798,21 @@
         <f t="shared" ref="E216:E223" si="24">ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F216" s="15" t="s">
+      <c r="F216" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G216" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H216" s="41" t="s">
+      <c r="H216" s="29" t="s">
         <v>155</v>
       </c>
       <c r="I216" s="22"/>
-      <c r="J216" s="24"/>
-      <c r="K216" s="43"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="23"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="44"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
@@ -5791,19 +5820,19 @@
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="F217" s="15" t="s">
+      <c r="F217" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G217" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H217" s="41"/>
+      <c r="H217" s="29"/>
       <c r="I217" s="22"/>
-      <c r="J217" s="46"/>
-      <c r="K217" s="44"/>
+      <c r="J217" s="31"/>
+      <c r="K217" s="24"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="44"/>
+      <c r="A218" s="24"/>
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
@@ -5817,13 +5846,13 @@
       <c r="G218" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H218" s="41"/>
+      <c r="H218" s="29"/>
       <c r="I218" s="22"/>
-      <c r="J218" s="46"/>
-      <c r="K218" s="44"/>
+      <c r="J218" s="31"/>
+      <c r="K218" s="24"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="44"/>
+      <c r="A219" s="24"/>
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
@@ -5837,13 +5866,13 @@
       <c r="G219" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H219" s="41"/>
+      <c r="H219" s="29"/>
       <c r="I219" s="22"/>
-      <c r="J219" s="46"/>
-      <c r="K219" s="44"/>
+      <c r="J219" s="31"/>
+      <c r="K219" s="24"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="44"/>
+      <c r="A220" s="24"/>
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
@@ -5857,13 +5886,13 @@
       <c r="G220" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H220" s="41"/>
+      <c r="H220" s="29"/>
       <c r="I220" s="22"/>
-      <c r="J220" s="46"/>
-      <c r="K220" s="44"/>
+      <c r="J220" s="31"/>
+      <c r="K220" s="24"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="44"/>
+      <c r="A221" s="24"/>
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
@@ -5877,13 +5906,13 @@
       <c r="G221" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H221" s="41"/>
+      <c r="H221" s="29"/>
       <c r="I221" s="22"/>
-      <c r="J221" s="46"/>
-      <c r="K221" s="44"/>
+      <c r="J221" s="31"/>
+      <c r="K221" s="24"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="44"/>
+      <c r="A222" s="24"/>
       <c r="B222" s="22"/>
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
@@ -5897,13 +5926,13 @@
       <c r="G222" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H222" s="41"/>
+      <c r="H222" s="29"/>
       <c r="I222" s="22"/>
-      <c r="J222" s="46"/>
-      <c r="K222" s="44"/>
+      <c r="J222" s="31"/>
+      <c r="K222" s="24"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="44"/>
+      <c r="A223" s="24"/>
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
@@ -5917,13 +5946,13 @@
       <c r="G223" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H223" s="41"/>
+      <c r="H223" s="29"/>
       <c r="I223" s="22"/>
-      <c r="J223" s="46"/>
-      <c r="K223" s="44"/>
+      <c r="J223" s="31"/>
+      <c r="K223" s="24"/>
     </row>
     <row r="224" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A224" s="44"/>
+      <c r="A224" s="24"/>
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
@@ -5937,13 +5966,13 @@
       <c r="G224" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H224" s="41"/>
+      <c r="H224" s="29"/>
       <c r="I224" s="22"/>
-      <c r="J224" s="46"/>
-      <c r="K224" s="44"/>
+      <c r="J224" s="31"/>
+      <c r="K224" s="24"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="44"/>
+      <c r="A225" s="24"/>
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
@@ -5957,13 +5986,13 @@
       <c r="G225" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H225" s="41"/>
+      <c r="H225" s="29"/>
       <c r="I225" s="22"/>
-      <c r="J225" s="46"/>
-      <c r="K225" s="44"/>
+      <c r="J225" s="31"/>
+      <c r="K225" s="24"/>
     </row>
     <row r="226" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A226" s="44"/>
+      <c r="A226" s="24"/>
       <c r="B226" s="22"/>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
@@ -5977,13 +6006,13 @@
       <c r="G226" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H226" s="41"/>
+      <c r="H226" s="29"/>
       <c r="I226" s="22"/>
-      <c r="J226" s="46"/>
-      <c r="K226" s="44"/>
+      <c r="J226" s="31"/>
+      <c r="K226" s="24"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="44"/>
+      <c r="A227" s="24"/>
       <c r="B227" s="22"/>
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
@@ -5997,13 +6026,13 @@
       <c r="G227" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H227" s="41"/>
+      <c r="H227" s="29"/>
       <c r="I227" s="22"/>
-      <c r="J227" s="46"/>
-      <c r="K227" s="44"/>
+      <c r="J227" s="31"/>
+      <c r="K227" s="24"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="44"/>
+      <c r="A228" s="24"/>
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
@@ -6017,13 +6046,13 @@
       <c r="G228" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H228" s="41"/>
+      <c r="H228" s="29"/>
       <c r="I228" s="22"/>
-      <c r="J228" s="46"/>
-      <c r="K228" s="44"/>
+      <c r="J228" s="31"/>
+      <c r="K228" s="24"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="45"/>
+      <c r="A229" s="25"/>
       <c r="B229" s="22"/>
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
@@ -6037,10 +6066,10 @@
       <c r="G229" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H229" s="41"/>
+      <c r="H229" s="29"/>
       <c r="I229" s="22"/>
-      <c r="J229" s="25"/>
-      <c r="K229" s="45"/>
+      <c r="J229" s="32"/>
+      <c r="K229" s="25"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
@@ -6115,17 +6144,17 @@
       <c r="D232" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E232" s="43">
+      <c r="E232" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F232" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G232" s="47" t="s">
+      <c r="F232" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G232" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H232" s="41" t="s">
+      <c r="H232" s="29" t="s">
         <v>133</v>
       </c>
       <c r="I232" s="21" t="s">
@@ -6139,10 +6168,10 @@
       <c r="B233" s="22"/>
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
-      <c r="E233" s="44"/>
-      <c r="F233" s="48"/>
-      <c r="G233" s="48"/>
-      <c r="H233" s="41"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="29"/>
       <c r="I233" s="21"/>
       <c r="J233" s="22"/>
       <c r="K233" s="21"/>
@@ -6152,10 +6181,10 @@
       <c r="B234" s="22"/>
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
-      <c r="E234" s="45"/>
-      <c r="F234" s="49"/>
-      <c r="G234" s="49"/>
-      <c r="H234" s="41"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="29"/>
       <c r="I234" s="21"/>
       <c r="J234" s="22"/>
       <c r="K234" s="21"/>
@@ -6173,54 +6202,54 @@
       <c r="D235" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E235" s="43">
+      <c r="E235" s="23">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F235" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G235" s="47" t="s">
+      <c r="F235" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H235" s="41" t="s">
+      <c r="H235" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I235" s="43"/>
-      <c r="J235" s="24"/>
-      <c r="K235" s="43"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="30"/>
+      <c r="K235" s="23"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
-      <c r="E236" s="44"/>
-      <c r="F236" s="48"/>
-      <c r="G236" s="48"/>
-      <c r="H236" s="41"/>
-      <c r="I236" s="44"/>
-      <c r="J236" s="46"/>
-      <c r="K236" s="44"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="29"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="31"/>
+      <c r="K236" s="24"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="22"/>
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
-      <c r="E237" s="45"/>
-      <c r="F237" s="49"/>
-      <c r="G237" s="49"/>
-      <c r="H237" s="41"/>
-      <c r="I237" s="45"/>
-      <c r="J237" s="25"/>
-      <c r="K237" s="45"/>
+      <c r="E237" s="25"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="29"/>
+      <c r="I237" s="25"/>
+      <c r="J237" s="32"/>
+      <c r="K237" s="25"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B238" s="24" t="s">
+      <c r="B238" s="30" t="s">
         <v>95</v>
       </c>
       <c r="C238" s="22" t="s">
@@ -6239,7 +6268,7 @@
       <c r="G238" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H238" s="41" t="s">
+      <c r="H238" s="29" t="s">
         <v>200</v>
       </c>
       <c r="I238" s="21"/>
@@ -6248,7 +6277,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
-      <c r="B239" s="46"/>
+      <c r="B239" s="31"/>
       <c r="C239" s="22"/>
       <c r="D239" s="22"/>
       <c r="E239" s="2">
@@ -6261,7 +6290,7 @@
       <c r="G239" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H239" s="41"/>
+      <c r="H239" s="29"/>
       <c r="I239" s="21"/>
       <c r="J239" s="22"/>
       <c r="K239" s="21"/>
@@ -6289,7 +6318,7 @@
       <c r="G240" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H240" s="41" t="s">
+      <c r="H240" s="29" t="s">
         <v>200</v>
       </c>
       <c r="I240" s="21"/>
@@ -6311,7 +6340,7 @@
       <c r="G241" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H241" s="41"/>
+      <c r="H241" s="29"/>
       <c r="I241" s="21"/>
       <c r="J241" s="22"/>
       <c r="K241" s="21"/>
@@ -6331,7 +6360,7 @@
       <c r="G242" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H242" s="41"/>
+      <c r="H242" s="29"/>
       <c r="I242" s="21"/>
       <c r="J242" s="22"/>
       <c r="K242" s="21"/>
@@ -6359,12 +6388,12 @@
       <c r="G243" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H243" s="41" t="s">
+      <c r="H243" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I243" s="42"/>
+      <c r="I243" s="33"/>
       <c r="J243" s="22"/>
-      <c r="K243" s="42"/>
+      <c r="K243" s="21"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="21"/>
@@ -6381,10 +6410,10 @@
       <c r="G244" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H244" s="41"/>
-      <c r="I244" s="42"/>
+      <c r="H244" s="29"/>
+      <c r="I244" s="33"/>
       <c r="J244" s="22"/>
-      <c r="K244" s="42"/>
+      <c r="K244" s="21"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
@@ -6401,10 +6430,10 @@
       <c r="G245" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H245" s="41"/>
-      <c r="I245" s="42"/>
+      <c r="H245" s="29"/>
+      <c r="I245" s="33"/>
       <c r="J245" s="22"/>
-      <c r="K245" s="42"/>
+      <c r="K245" s="21"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="21"/>
@@ -6421,10 +6450,10 @@
       <c r="G246" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H246" s="41"/>
-      <c r="I246" s="42"/>
+      <c r="H246" s="29"/>
+      <c r="I246" s="33"/>
       <c r="J246" s="22"/>
-      <c r="K246" s="42"/>
+      <c r="K246" s="21"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="21"/>
@@ -6441,10 +6470,10 @@
       <c r="G247" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H247" s="41"/>
-      <c r="I247" s="42"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="33"/>
       <c r="J247" s="22"/>
-      <c r="K247" s="42"/>
+      <c r="K247" s="21"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
@@ -6469,12 +6498,12 @@
       <c r="G248" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H248" s="41" t="s">
+      <c r="H248" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I248" s="42"/>
+      <c r="I248" s="33"/>
       <c r="J248" s="22"/>
-      <c r="K248" s="42"/>
+      <c r="K248" s="21"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
@@ -6491,10 +6520,10 @@
       <c r="G249" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H249" s="41"/>
-      <c r="I249" s="42"/>
+      <c r="H249" s="29"/>
+      <c r="I249" s="33"/>
       <c r="J249" s="22"/>
-      <c r="K249" s="42"/>
+      <c r="K249" s="21"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
@@ -6511,10 +6540,10 @@
       <c r="G250" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H250" s="41"/>
-      <c r="I250" s="42"/>
+      <c r="H250" s="29"/>
+      <c r="I250" s="33"/>
       <c r="J250" s="22"/>
-      <c r="K250" s="42"/>
+      <c r="K250" s="21"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
@@ -6531,10 +6560,10 @@
       <c r="G251" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H251" s="41"/>
-      <c r="I251" s="42"/>
+      <c r="H251" s="29"/>
+      <c r="I251" s="33"/>
       <c r="J251" s="22"/>
-      <c r="K251" s="42"/>
+      <c r="K251" s="21"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
@@ -6551,10 +6580,10 @@
       <c r="G252" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H252" s="41"/>
-      <c r="I252" s="42"/>
+      <c r="H252" s="29"/>
+      <c r="I252" s="33"/>
       <c r="J252" s="22"/>
-      <c r="K252" s="42"/>
+      <c r="K252" s="21"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="21"/>
@@ -6571,10 +6600,10 @@
       <c r="G253" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H253" s="41"/>
-      <c r="I253" s="42"/>
+      <c r="H253" s="29"/>
+      <c r="I253" s="33"/>
       <c r="J253" s="22"/>
-      <c r="K253" s="42"/>
+      <c r="K253" s="21"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
@@ -6599,12 +6628,12 @@
       <c r="G254" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H254" s="41" t="s">
+      <c r="H254" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I254" s="42"/>
+      <c r="I254" s="33"/>
       <c r="J254" s="22"/>
-      <c r="K254" s="42"/>
+      <c r="K254" s="21"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
@@ -6621,10 +6650,10 @@
       <c r="G255" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H255" s="41"/>
-      <c r="I255" s="42"/>
+      <c r="H255" s="29"/>
+      <c r="I255" s="33"/>
       <c r="J255" s="22"/>
-      <c r="K255" s="42"/>
+      <c r="K255" s="21"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
@@ -6641,10 +6670,10 @@
       <c r="G256" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H256" s="41"/>
-      <c r="I256" s="42"/>
+      <c r="H256" s="29"/>
+      <c r="I256" s="33"/>
       <c r="J256" s="22"/>
-      <c r="K256" s="42"/>
+      <c r="K256" s="21"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
@@ -6661,10 +6690,10 @@
       <c r="G257" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H257" s="41"/>
-      <c r="I257" s="42"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="33"/>
       <c r="J257" s="22"/>
-      <c r="K257" s="42"/>
+      <c r="K257" s="21"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="21"/>
@@ -6681,10 +6710,10 @@
       <c r="G258" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H258" s="41"/>
-      <c r="I258" s="42"/>
+      <c r="H258" s="29"/>
+      <c r="I258" s="33"/>
       <c r="J258" s="22"/>
-      <c r="K258" s="42"/>
+      <c r="K258" s="21"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
@@ -6701,10 +6730,10 @@
       <c r="G259" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H259" s="41"/>
-      <c r="I259" s="42"/>
+      <c r="H259" s="29"/>
+      <c r="I259" s="33"/>
       <c r="J259" s="22"/>
-      <c r="K259" s="42"/>
+      <c r="K259" s="21"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="21"/>
@@ -6721,10 +6750,10 @@
       <c r="G260" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H260" s="41"/>
-      <c r="I260" s="42"/>
+      <c r="H260" s="29"/>
+      <c r="I260" s="33"/>
       <c r="J260" s="22"/>
-      <c r="K260" s="42"/>
+      <c r="K260" s="21"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
@@ -6749,12 +6778,12 @@
       <c r="G261" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H261" s="41" t="s">
+      <c r="H261" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I261" s="42"/>
+      <c r="I261" s="33"/>
       <c r="J261" s="22"/>
-      <c r="K261" s="42"/>
+      <c r="K261" s="21"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="21"/>
@@ -6771,10 +6800,10 @@
       <c r="G262" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H262" s="41"/>
-      <c r="I262" s="42"/>
+      <c r="H262" s="29"/>
+      <c r="I262" s="33"/>
       <c r="J262" s="22"/>
-      <c r="K262" s="42"/>
+      <c r="K262" s="21"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
@@ -6791,10 +6820,10 @@
       <c r="G263" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H263" s="41"/>
-      <c r="I263" s="42"/>
+      <c r="H263" s="29"/>
+      <c r="I263" s="33"/>
       <c r="J263" s="22"/>
-      <c r="K263" s="42"/>
+      <c r="K263" s="21"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
@@ -6811,10 +6840,10 @@
       <c r="G264" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H264" s="41"/>
-      <c r="I264" s="42"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="33"/>
       <c r="J264" s="22"/>
-      <c r="K264" s="42"/>
+      <c r="K264" s="21"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="21"/>
@@ -6831,10 +6860,10 @@
       <c r="G265" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H265" s="41"/>
-      <c r="I265" s="42"/>
+      <c r="H265" s="29"/>
+      <c r="I265" s="33"/>
       <c r="J265" s="22"/>
-      <c r="K265" s="42"/>
+      <c r="K265" s="21"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
@@ -6851,10 +6880,10 @@
       <c r="G266" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H266" s="41"/>
-      <c r="I266" s="42"/>
+      <c r="H266" s="29"/>
+      <c r="I266" s="33"/>
       <c r="J266" s="22"/>
-      <c r="K266" s="42"/>
+      <c r="K266" s="21"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="21"/>
@@ -6871,10 +6900,10 @@
       <c r="G267" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H267" s="41"/>
-      <c r="I267" s="42"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="33"/>
       <c r="J267" s="22"/>
-      <c r="K267" s="42"/>
+      <c r="K267" s="21"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
@@ -6899,12 +6928,12 @@
       <c r="G268" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H268" s="41" t="s">
+      <c r="H268" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I268" s="42"/>
+      <c r="I268" s="33"/>
       <c r="J268" s="22"/>
-      <c r="K268" s="42"/>
+      <c r="K268" s="21"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="21"/>
@@ -6921,10 +6950,10 @@
       <c r="G269" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H269" s="41"/>
-      <c r="I269" s="42"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="33"/>
       <c r="J269" s="22"/>
-      <c r="K269" s="42"/>
+      <c r="K269" s="21"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
@@ -6941,10 +6970,10 @@
       <c r="G270" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H270" s="41"/>
-      <c r="I270" s="42"/>
+      <c r="H270" s="29"/>
+      <c r="I270" s="33"/>
       <c r="J270" s="22"/>
-      <c r="K270" s="42"/>
+      <c r="K270" s="21"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
@@ -6961,10 +6990,10 @@
       <c r="G271" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H271" s="41"/>
-      <c r="I271" s="42"/>
+      <c r="H271" s="29"/>
+      <c r="I271" s="33"/>
       <c r="J271" s="22"/>
-      <c r="K271" s="42"/>
+      <c r="K271" s="21"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="21"/>
@@ -6981,10 +7010,10 @@
       <c r="G272" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H272" s="41"/>
-      <c r="I272" s="42"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="33"/>
       <c r="J272" s="22"/>
-      <c r="K272" s="42"/>
+      <c r="K272" s="21"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
@@ -7001,10 +7030,10 @@
       <c r="G273" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H273" s="41"/>
-      <c r="I273" s="42"/>
+      <c r="H273" s="29"/>
+      <c r="I273" s="33"/>
       <c r="J273" s="22"/>
-      <c r="K273" s="42"/>
+      <c r="K273" s="21"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="21"/>
@@ -7021,10 +7050,10 @@
       <c r="G274" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H274" s="41"/>
-      <c r="I274" s="42"/>
+      <c r="H274" s="29"/>
+      <c r="I274" s="33"/>
       <c r="J274" s="22"/>
-      <c r="K274" s="42"/>
+      <c r="K274" s="21"/>
     </row>
     <row r="275" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
@@ -7052,9 +7081,9 @@
       <c r="H275" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I275" s="15"/>
+      <c r="I275" s="14"/>
       <c r="J275" s="13"/>
-      <c r="K275" s="14"/>
+      <c r="K275" s="2"/>
     </row>
     <row r="276" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
@@ -7082,127 +7111,127 @@
       <c r="H276" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I276" s="15"/>
+      <c r="I276" s="14"/>
       <c r="J276" s="13"/>
-      <c r="K276" s="14"/>
+      <c r="K276" s="2"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C278" s="27"/>
-      <c r="D278" s="27"/>
-      <c r="E278" s="27"/>
-      <c r="F278" s="27"/>
-      <c r="G278" s="27"/>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27"/>
-      <c r="J278" s="27"/>
-      <c r="K278" s="28"/>
+      <c r="C278" s="35"/>
+      <c r="D278" s="35"/>
+      <c r="E278" s="35"/>
+      <c r="F278" s="35"/>
+      <c r="G278" s="35"/>
+      <c r="H278" s="35"/>
+      <c r="I278" s="35"/>
+      <c r="J278" s="35"/>
+      <c r="K278" s="36"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B279" s="26" t="s">
+      <c r="B279" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C279" s="27"/>
-      <c r="D279" s="27"/>
-      <c r="E279" s="27"/>
-      <c r="F279" s="27"/>
-      <c r="G279" s="27"/>
-      <c r="H279" s="27"/>
-      <c r="I279" s="27"/>
-      <c r="J279" s="27"/>
-      <c r="K279" s="28"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="35"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="35"/>
+      <c r="G279" s="35"/>
+      <c r="H279" s="35"/>
+      <c r="I279" s="35"/>
+      <c r="J279" s="35"/>
+      <c r="K279" s="36"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B280" s="29" t="s">
+      <c r="B280" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C280" s="30"/>
-      <c r="D280" s="30"/>
-      <c r="E280" s="30"/>
-      <c r="F280" s="30"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="30"/>
-      <c r="I280" s="30"/>
-      <c r="J280" s="30"/>
-      <c r="K280" s="31"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38"/>
+      <c r="E280" s="38"/>
+      <c r="F280" s="38"/>
+      <c r="G280" s="38"/>
+      <c r="H280" s="38"/>
+      <c r="I280" s="38"/>
+      <c r="J280" s="38"/>
+      <c r="K280" s="39"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B281" s="32">
+      <c r="B281" s="40">
         <v>45208</v>
       </c>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-      <c r="I281" s="33"/>
-      <c r="J281" s="33"/>
-      <c r="K281" s="34"/>
+      <c r="C281" s="41"/>
+      <c r="D281" s="41"/>
+      <c r="E281" s="41"/>
+      <c r="F281" s="41"/>
+      <c r="G281" s="41"/>
+      <c r="H281" s="41"/>
+      <c r="I281" s="41"/>
+      <c r="J281" s="41"/>
+      <c r="K281" s="42"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="35" t="s">
+      <c r="A283" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C283" s="35" t="s">
+      <c r="C283" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="35" t="s">
+      <c r="D283" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E283" s="37" t="s">
+      <c r="E283" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F283" s="38"/>
-      <c r="G283" s="39" t="s">
+      <c r="F283" s="46"/>
+      <c r="G283" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H283" s="39" t="s">
+      <c r="H283" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I283" s="35" t="s">
+      <c r="I283" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J283" s="50" t="s">
+      <c r="J283" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K283" s="35" t="s">
+      <c r="K283" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
-      <c r="B284" s="36"/>
-      <c r="C284" s="36"/>
-      <c r="D284" s="36"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="44"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="44"/>
       <c r="E284" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F284" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G284" s="40"/>
-      <c r="H284" s="40"/>
-      <c r="I284" s="36"/>
-      <c r="J284" s="51"/>
-      <c r="K284" s="36"/>
+      <c r="G284" s="48"/>
+      <c r="H284" s="48"/>
+      <c r="I284" s="44"/>
+      <c r="J284" s="50"/>
+      <c r="K284" s="44"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
@@ -7217,17 +7246,17 @@
       <c r="D285" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E285" s="20">
+      <c r="E285" s="19">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F285" s="15" t="s">
+      <c r="F285" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H285" s="23" t="s">
+      <c r="H285" s="51" t="s">
         <v>180</v>
       </c>
       <c r="I285" s="21"/>
@@ -7239,17 +7268,17 @@
       <c r="B286" s="22"/>
       <c r="C286" s="22"/>
       <c r="D286" s="22"/>
-      <c r="E286" s="20">
+      <c r="E286" s="19">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F286" s="15" t="s">
+      <c r="F286" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H286" s="23"/>
+      <c r="H286" s="51"/>
       <c r="I286" s="21"/>
       <c r="J286" s="22"/>
       <c r="K286" s="21"/>
@@ -7261,7 +7290,7 @@
       <c r="B287" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="C287" s="30" t="s">
         <v>183</v>
       </c>
       <c r="D287" s="22" t="s">
@@ -7271,13 +7300,13 @@
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F287" s="15" t="s">
+      <c r="F287" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H287" s="23" t="s">
+      <c r="H287" s="51" t="s">
         <v>185</v>
       </c>
       <c r="I287" s="21"/>
@@ -7287,34 +7316,387 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="21"/>
       <c r="B288" s="22"/>
-      <c r="C288" s="25"/>
+      <c r="C288" s="32"/>
       <c r="D288" s="22"/>
       <c r="E288" s="2">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F288" s="15" t="s">
+      <c r="F288" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H288" s="23"/>
+      <c r="H288" s="51"/>
       <c r="I288" s="21"/>
       <c r="J288" s="22"/>
       <c r="K288" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="H285:H286"/>
+    <mergeCell ref="K285:K286"/>
+    <mergeCell ref="J285:J286"/>
+    <mergeCell ref="I285:I286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="H287:H288"/>
+    <mergeCell ref="I287:I288"/>
+    <mergeCell ref="J287:J288"/>
+    <mergeCell ref="K287:K288"/>
+    <mergeCell ref="B278:K278"/>
+    <mergeCell ref="B279:K279"/>
+    <mergeCell ref="B280:K280"/>
+    <mergeCell ref="B281:K281"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="G283:G284"/>
+    <mergeCell ref="H283:H284"/>
+    <mergeCell ref="I283:I284"/>
+    <mergeCell ref="J283:J284"/>
+    <mergeCell ref="K283:K284"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="B261:B267"/>
+    <mergeCell ref="C261:C267"/>
+    <mergeCell ref="D261:D267"/>
+    <mergeCell ref="H261:H267"/>
+    <mergeCell ref="I261:I267"/>
+    <mergeCell ref="J261:J267"/>
+    <mergeCell ref="K261:K267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="C268:C274"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="H268:H274"/>
+    <mergeCell ref="I268:I274"/>
+    <mergeCell ref="J268:J274"/>
+    <mergeCell ref="K268:K274"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="D248:D253"/>
+    <mergeCell ref="H248:H253"/>
+    <mergeCell ref="I248:I253"/>
+    <mergeCell ref="J248:J253"/>
+    <mergeCell ref="K248:K253"/>
+    <mergeCell ref="A254:A260"/>
+    <mergeCell ref="B254:B260"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="D254:D260"/>
+    <mergeCell ref="H254:H260"/>
+    <mergeCell ref="I254:I260"/>
+    <mergeCell ref="J254:J260"/>
+    <mergeCell ref="K254:K260"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="H240:H242"/>
+    <mergeCell ref="I240:I242"/>
+    <mergeCell ref="J240:J242"/>
+    <mergeCell ref="K240:K242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="H243:H247"/>
+    <mergeCell ref="I243:I247"/>
+    <mergeCell ref="J243:J247"/>
+    <mergeCell ref="K243:K247"/>
+    <mergeCell ref="G232:G234"/>
+    <mergeCell ref="H232:H234"/>
+    <mergeCell ref="I232:I234"/>
+    <mergeCell ref="J235:J237"/>
+    <mergeCell ref="K235:K237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="I238:I239"/>
+    <mergeCell ref="J238:J239"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="E235:E237"/>
+    <mergeCell ref="F235:F237"/>
+    <mergeCell ref="G235:G237"/>
+    <mergeCell ref="H235:H237"/>
+    <mergeCell ref="I235:I237"/>
+    <mergeCell ref="J232:J234"/>
+    <mergeCell ref="K232:K234"/>
+    <mergeCell ref="A202:A215"/>
+    <mergeCell ref="B202:B215"/>
+    <mergeCell ref="C202:C215"/>
+    <mergeCell ref="D202:D215"/>
+    <mergeCell ref="H202:H215"/>
+    <mergeCell ref="I202:I215"/>
+    <mergeCell ref="J202:J215"/>
+    <mergeCell ref="K202:K215"/>
+    <mergeCell ref="A216:A229"/>
+    <mergeCell ref="B216:B229"/>
+    <mergeCell ref="C216:C229"/>
+    <mergeCell ref="D216:D229"/>
+    <mergeCell ref="H216:H229"/>
+    <mergeCell ref="I216:I229"/>
+    <mergeCell ref="J216:J229"/>
+    <mergeCell ref="K216:K229"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="F232:F234"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="B174:B187"/>
+    <mergeCell ref="C174:C187"/>
+    <mergeCell ref="D174:D187"/>
+    <mergeCell ref="H174:H187"/>
+    <mergeCell ref="I174:I187"/>
+    <mergeCell ref="J174:J187"/>
+    <mergeCell ref="K174:K187"/>
+    <mergeCell ref="A188:A201"/>
+    <mergeCell ref="B188:B201"/>
+    <mergeCell ref="C188:C201"/>
+    <mergeCell ref="D188:D201"/>
+    <mergeCell ref="H188:H201"/>
+    <mergeCell ref="I188:I201"/>
+    <mergeCell ref="J188:J201"/>
+    <mergeCell ref="K188:K201"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="B167:K167"/>
+    <mergeCell ref="B168:K168"/>
+    <mergeCell ref="B169:K169"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="J172:J173"/>
+    <mergeCell ref="K172:K173"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="I143:I149"/>
+    <mergeCell ref="J143:J149"/>
+    <mergeCell ref="K143:K149"/>
+    <mergeCell ref="H143:H149"/>
+    <mergeCell ref="D143:D149"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="D150:D156"/>
+    <mergeCell ref="H150:H156"/>
+    <mergeCell ref="I150:I156"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="K132:K136"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="C137:C142"/>
+    <mergeCell ref="D137:D142"/>
+    <mergeCell ref="H137:H142"/>
+    <mergeCell ref="I137:I142"/>
+    <mergeCell ref="J137:J142"/>
+    <mergeCell ref="K137:K142"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="H120:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J67:J79"/>
+    <mergeCell ref="K67:K79"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J80:J91"/>
+    <mergeCell ref="K80:K91"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="A92:A104"/>
+    <mergeCell ref="B92:B104"/>
+    <mergeCell ref="C92:C104"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="H92:H104"/>
+    <mergeCell ref="I92:I104"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="B80:B91"/>
+    <mergeCell ref="C80:C91"/>
+    <mergeCell ref="D80:D91"/>
+    <mergeCell ref="H80:H91"/>
+    <mergeCell ref="I80:I91"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B67:B79"/>
+    <mergeCell ref="C67:C79"/>
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="H67:H79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="I46:I50"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="A105:A116"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="C105:C116"/>
+    <mergeCell ref="D105:D116"/>
+    <mergeCell ref="H105:H116"/>
+    <mergeCell ref="I105:I116"/>
+    <mergeCell ref="J105:J116"/>
+    <mergeCell ref="K105:K116"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
     <mergeCell ref="J123:J125"/>
     <mergeCell ref="K123:K125"/>
     <mergeCell ref="J150:J156"/>
@@ -7339,368 +7721,15 @@
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="C132:C136"/>
     <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="K14:K19"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="J92:J104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C105:C116"/>
-    <mergeCell ref="D105:D116"/>
-    <mergeCell ref="H105:H116"/>
-    <mergeCell ref="I105:I116"/>
-    <mergeCell ref="J105:J116"/>
-    <mergeCell ref="K105:K116"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="I46:I50"/>
-    <mergeCell ref="C80:C91"/>
-    <mergeCell ref="D80:D91"/>
-    <mergeCell ref="H80:H91"/>
-    <mergeCell ref="I80:I91"/>
-    <mergeCell ref="A67:A79"/>
-    <mergeCell ref="B67:B79"/>
-    <mergeCell ref="C67:C79"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="H67:H79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="J67:J79"/>
-    <mergeCell ref="K67:K79"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J80:J91"/>
-    <mergeCell ref="K80:K91"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="A92:A104"/>
-    <mergeCell ref="B92:B104"/>
-    <mergeCell ref="C92:C104"/>
-    <mergeCell ref="D92:D104"/>
-    <mergeCell ref="H92:H104"/>
-    <mergeCell ref="I92:I104"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="B80:B91"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="C137:C142"/>
-    <mergeCell ref="D137:D142"/>
-    <mergeCell ref="H137:H142"/>
-    <mergeCell ref="I137:I142"/>
-    <mergeCell ref="J137:J142"/>
-    <mergeCell ref="K137:K142"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="H120:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="D150:D156"/>
-    <mergeCell ref="H150:H156"/>
-    <mergeCell ref="I150:I156"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="K132:K136"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="B167:K167"/>
-    <mergeCell ref="B168:K168"/>
-    <mergeCell ref="B169:K169"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="J172:J173"/>
-    <mergeCell ref="K172:K173"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="I143:I149"/>
-    <mergeCell ref="J143:J149"/>
-    <mergeCell ref="K143:K149"/>
-    <mergeCell ref="H143:H149"/>
-    <mergeCell ref="D143:D149"/>
-    <mergeCell ref="A150:A156"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="B174:B187"/>
-    <mergeCell ref="C174:C187"/>
-    <mergeCell ref="D174:D187"/>
-    <mergeCell ref="H174:H187"/>
-    <mergeCell ref="I174:I187"/>
-    <mergeCell ref="J174:J187"/>
-    <mergeCell ref="K174:K187"/>
-    <mergeCell ref="A188:A201"/>
-    <mergeCell ref="B188:B201"/>
-    <mergeCell ref="C188:C201"/>
-    <mergeCell ref="D188:D201"/>
-    <mergeCell ref="H188:H201"/>
-    <mergeCell ref="I188:I201"/>
-    <mergeCell ref="J188:J201"/>
-    <mergeCell ref="K188:K201"/>
-    <mergeCell ref="J232:J234"/>
-    <mergeCell ref="K232:K234"/>
-    <mergeCell ref="A202:A215"/>
-    <mergeCell ref="B202:B215"/>
-    <mergeCell ref="C202:C215"/>
-    <mergeCell ref="D202:D215"/>
-    <mergeCell ref="H202:H215"/>
-    <mergeCell ref="I202:I215"/>
-    <mergeCell ref="J202:J215"/>
-    <mergeCell ref="K202:K215"/>
-    <mergeCell ref="A216:A229"/>
-    <mergeCell ref="B216:B229"/>
-    <mergeCell ref="C216:C229"/>
-    <mergeCell ref="D216:D229"/>
-    <mergeCell ref="H216:H229"/>
-    <mergeCell ref="I216:I229"/>
-    <mergeCell ref="J216:J229"/>
-    <mergeCell ref="K216:K229"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="F232:F234"/>
-    <mergeCell ref="G232:G234"/>
-    <mergeCell ref="H232:H234"/>
-    <mergeCell ref="I232:I234"/>
-    <mergeCell ref="J235:J237"/>
-    <mergeCell ref="K235:K237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="H238:H239"/>
-    <mergeCell ref="I238:I239"/>
-    <mergeCell ref="J238:J239"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="E235:E237"/>
-    <mergeCell ref="F235:F237"/>
-    <mergeCell ref="G235:G237"/>
-    <mergeCell ref="H235:H237"/>
-    <mergeCell ref="I235:I237"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="I240:I242"/>
-    <mergeCell ref="J240:J242"/>
-    <mergeCell ref="K240:K242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="H243:H247"/>
-    <mergeCell ref="I243:I247"/>
-    <mergeCell ref="J243:J247"/>
-    <mergeCell ref="K243:K247"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="D248:D253"/>
-    <mergeCell ref="H248:H253"/>
-    <mergeCell ref="I248:I253"/>
-    <mergeCell ref="J248:J253"/>
-    <mergeCell ref="K248:K253"/>
-    <mergeCell ref="A254:A260"/>
-    <mergeCell ref="B254:B260"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="D254:D260"/>
-    <mergeCell ref="H254:H260"/>
-    <mergeCell ref="I254:I260"/>
-    <mergeCell ref="J254:J260"/>
-    <mergeCell ref="K254:K260"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="B261:B267"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="D261:D267"/>
-    <mergeCell ref="H261:H267"/>
-    <mergeCell ref="I261:I267"/>
-    <mergeCell ref="J261:J267"/>
-    <mergeCell ref="K261:K267"/>
-    <mergeCell ref="A268:A274"/>
-    <mergeCell ref="B268:B274"/>
-    <mergeCell ref="C268:C274"/>
-    <mergeCell ref="D268:D274"/>
-    <mergeCell ref="H268:H274"/>
-    <mergeCell ref="I268:I274"/>
-    <mergeCell ref="J268:J274"/>
-    <mergeCell ref="K268:K274"/>
-    <mergeCell ref="B278:K278"/>
-    <mergeCell ref="B279:K279"/>
-    <mergeCell ref="B280:K280"/>
-    <mergeCell ref="B281:K281"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="H283:H284"/>
-    <mergeCell ref="I283:I284"/>
-    <mergeCell ref="J283:J284"/>
-    <mergeCell ref="K283:K284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="H285:H286"/>
-    <mergeCell ref="K285:K286"/>
-    <mergeCell ref="J285:J286"/>
-    <mergeCell ref="I285:I286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="H287:H288"/>
-    <mergeCell ref="I287:I288"/>
-    <mergeCell ref="J287:J288"/>
-    <mergeCell ref="K287:K288"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="I123:I125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/TEST_FOR_SKYAIRs.xlsx
+++ b/test/TEST_FOR_SKYAIRs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\React SKYAIRs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46984DC-3B24-4048-8089-D202C16C41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC066111-E674-4911-8704-11FC5422C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2175" windowWidth="19350" windowHeight="12210" xr2:uid="{E178A011-D998-4B14-882A-725CB391AA49}"/>
+    <workbookView xWindow="33045" yWindow="1680" windowWidth="19350" windowHeight="12210" xr2:uid="{E178A011-D998-4B14-882A-725CB391AA49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="205">
   <si>
     <t>Test No</t>
   </si>
@@ -512,12 +512,6 @@
     <t>เลือกflight departure</t>
   </si>
   <si>
-    <t>เที่ยวบินขากลับ กรุงเทพ</t>
-  </si>
-  <si>
-    <t>เลือกflight return</t>
-  </si>
-  <si>
     <t>ต้องเลือก flight departure</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t xml:space="preserve">go to http://localhost:3000/flight/confirm and show data (TF001, TF005) </t>
   </si>
   <si>
-    <t>TC_FLIGHT_ROUNDTRIP_017</t>
-  </si>
-  <si>
     <t>ต้องเลือกflightและทำตาม TC_FLIGHT_ONEWAY_015</t>
   </si>
   <si>
@@ -575,9 +566,6 @@
     <t>href="/flight/order"</t>
   </si>
   <si>
-    <t>id="Cancel-1"</t>
-  </si>
-  <si>
     <t>สถานะการจอง : Cancelled</t>
   </si>
   <si>
@@ -645,6 +633,24 @@
   </si>
   <si>
     <t>alert There is no information on the return flight.</t>
+  </si>
+  <si>
+    <t>show flight of search from date ขากลับ(Sat, 05 Oct)</t>
+  </si>
+  <si>
+    <t>ต้องเลือกflightTrip, และTC_FLIGHT_ONEWAY_005</t>
+  </si>
+  <si>
+    <t>ต้องเลือกflight และต้อง Login</t>
+  </si>
+  <si>
+    <t>There is no information on the return flight.</t>
+  </si>
+  <si>
+    <t>flight of search from date ขากลับ(Sat, 05 Oct)</t>
+  </si>
+  <si>
+    <t>id="Cancel-3"</t>
   </si>
 </sst>
 </file>
@@ -882,38 +888,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -966,8 +948,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,10 +1289,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BC9123-7E4D-4274-9B48-E6F967C4CFD0}">
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:M287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A185" sqref="A185"/>
+      <selection pane="topRight" activeCell="J290" sqref="J290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1306,119 +1314,119 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="32">
         <v>45206</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="44"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1439,19 +1447,19 @@
         <v>53</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>191</v>
+      <c r="J8" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,10 +1477,10 @@
       <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="24"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -1489,10 +1497,10 @@
       <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="24"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -1507,12 +1515,12 @@
         <v>78</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="24"/>
+        <v>184</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1527,12 +1535,12 @@
         <v>69</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -1544,15 +1552,15 @@
         <v>6</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -1573,19 +1581,19 @@
         <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>191</v>
+      <c r="J14" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1603,10 +1611,10 @@
       <c r="G15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
@@ -1623,10 +1631,10 @@
       <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="24"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
@@ -1641,12 +1649,12 @@
         <v>78</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1661,12 +1669,12 @@
         <v>69</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -1678,15 +1686,15 @@
         <v>6</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -1707,17 +1715,17 @@
         <v>53</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30" t="s">
+      <c r="I20" s="49"/>
+      <c r="J20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>191</v>
+      <c r="K20" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1735,10 +1743,10 @@
       <c r="G21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="24"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1755,10 +1763,10 @@
       <c r="G22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="24"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
@@ -1773,12 +1781,12 @@
         <v>78</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="24"/>
+        <v>184</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1793,12 +1801,12 @@
         <v>69</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -1819,17 +1827,17 @@
         <v>53</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="30" t="s">
+      <c r="I25" s="49"/>
+      <c r="J25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>191</v>
+      <c r="K25" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1847,10 +1855,10 @@
       <c r="G26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="24"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -1867,10 +1875,10 @@
       <c r="G27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="24"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
@@ -1885,12 +1893,12 @@
         <v>78</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -1905,12 +1913,12 @@
         <v>69</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1929,120 +1937,120 @@
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="32">
         <v>45206</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47" t="s">
+      <c r="F36" s="38"/>
+      <c r="G36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="47" t="s">
+      <c r="H36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="35" t="s">
         <v>9</v>
       </c>
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="44"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -2063,17 +2071,17 @@
         <v>53</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="43" t="s">
         <v>82</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="23" t="s">
-        <v>191</v>
+      <c r="K38" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2091,10 +2099,10 @@
       <c r="G39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="29"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="24"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
@@ -2111,10 +2119,10 @@
       <c r="G40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="29"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="24"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="50"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
@@ -2129,12 +2137,12 @@
         <v>50</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="29"/>
+        <v>164</v>
+      </c>
+      <c r="H41" s="43"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
@@ -2155,17 +2163,17 @@
         <v>53</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="30" t="s">
+      <c r="I42" s="49"/>
+      <c r="J42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>191</v>
+      <c r="K42" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,10 +2191,10 @@
       <c r="G43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="24"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="50"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -2203,10 +2211,10 @@
       <c r="G44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="24"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="50"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
@@ -2221,12 +2229,12 @@
         <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="H45" s="43"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="51"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
@@ -2247,19 +2255,19 @@
         <v>52</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>191</v>
+        <v>168</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2277,10 +2285,10 @@
       <c r="G47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="24"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
@@ -2297,10 +2305,10 @@
       <c r="G48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="24"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="50"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
@@ -2315,12 +2323,12 @@
         <v>50</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="H49" s="43"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
@@ -2335,12 +2343,12 @@
         <v>52</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="25"/>
+        <v>163</v>
+      </c>
+      <c r="H50" s="43"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="51"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2361,19 +2369,19 @@
         <v>53</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>191</v>
+        <v>168</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,10 +2399,10 @@
       <c r="G52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="24"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2411,10 +2419,10 @@
       <c r="G53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="24"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="50"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -2429,12 +2437,12 @@
         <v>50</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="H54" s="43"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="50"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
@@ -2449,12 +2457,12 @@
         <v>52</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="25"/>
+        <v>163</v>
+      </c>
+      <c r="H55" s="43"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="51"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
@@ -2463,186 +2471,186 @@
       <c r="B56" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="23">
+      <c r="D56" s="24"/>
+      <c r="E56" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="H56" s="26" t="s">
+      <c r="G56" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>191</v>
+      <c r="I56" s="49"/>
+      <c r="J56" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="24"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="50"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="51"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="36"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="39"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="31"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="32">
         <v>45207</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="42"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="47" t="s">
+      <c r="F65" s="38"/>
+      <c r="G65" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H65" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J65" s="49" t="s">
+      <c r="J65" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="43" t="s">
+      <c r="K65" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="44"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="30" t="s">
+      <c r="C67" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E67" s="2">
@@ -2655,22 +2663,22 @@
       <c r="G67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>191</v>
+      <c r="H67" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K67" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -2681,16 +2689,16 @@
       <c r="G68" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="24"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="50"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="2">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -2701,16 +2709,16 @@
       <c r="G69" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="24"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="50"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -2721,16 +2729,16 @@
       <c r="G70" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="24"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="50"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -2741,16 +2749,16 @@
       <c r="G71" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="24"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="50"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -2761,16 +2769,16 @@
       <c r="G72" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="27"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="24"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="50"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -2781,16 +2789,16 @@
       <c r="G73" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="27"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="24"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="50"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -2801,16 +2809,16 @@
       <c r="G74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="27"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="24"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="50"/>
     </row>
     <row r="75" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="2">
         <f>ROW(F10)</f>
         <v>10</v>
@@ -2821,16 +2829,16 @@
       <c r="G75" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H75" s="27"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="24"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="50"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
       <c r="E76" s="2">
         <f t="shared" ref="E76:E79" si="9">ROW(F11)</f>
         <v>11</v>
@@ -2839,18 +2847,18 @@
         <v>53</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H76" s="27"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="24"/>
+        <v>182</v>
+      </c>
+      <c r="H76" s="46"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="50"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="2">
         <f t="shared" si="9"/>
         <v>12</v>
@@ -2861,16 +2869,16 @@
       <c r="G77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="27"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="24"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="2">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -2879,18 +2887,18 @@
         <v>56</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" s="27"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="24"/>
+        <v>193</v>
+      </c>
+      <c r="H78" s="46"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="50"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="2">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -2901,10 +2909,10 @@
       <c r="G79" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="25"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="51"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
@@ -2914,7 +2922,7 @@
         <v>30</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>31</v>
@@ -2929,15 +2937,15 @@
       <c r="G80" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" s="43" t="s">
         <v>91</v>
       </c>
       <c r="I80" s="22"/>
-      <c r="J80" s="30" t="s">
+      <c r="J80" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K80" s="23" t="s">
-        <v>191</v>
+      <c r="K80" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -2955,10 +2963,10 @@
       <c r="G81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H81" s="29"/>
+      <c r="H81" s="43"/>
       <c r="I81" s="22"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="24"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="50"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
@@ -2975,10 +2983,10 @@
       <c r="G82" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="29"/>
+      <c r="H82" s="43"/>
       <c r="I82" s="22"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="24"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
@@ -2995,10 +3003,10 @@
       <c r="G83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="29"/>
+      <c r="H83" s="43"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="24"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
@@ -3015,10 +3023,10 @@
       <c r="G84" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H84" s="29"/>
+      <c r="H84" s="43"/>
       <c r="I84" s="22"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="24"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="50"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
@@ -3035,10 +3043,10 @@
       <c r="G85" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H85" s="29"/>
+      <c r="H85" s="43"/>
       <c r="I85" s="22"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="24"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="50"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
@@ -3055,10 +3063,10 @@
       <c r="G86" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="29"/>
+      <c r="H86" s="43"/>
       <c r="I86" s="22"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="24"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="50"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
@@ -3075,10 +3083,10 @@
       <c r="G87" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H87" s="29"/>
+      <c r="H87" s="43"/>
       <c r="I87" s="22"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="24"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="50"/>
     </row>
     <row r="88" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
@@ -3095,10 +3103,10 @@
       <c r="G88" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="29"/>
+      <c r="H88" s="43"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="24"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="50"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
@@ -3115,10 +3123,10 @@
       <c r="G89" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="29"/>
+      <c r="H89" s="43"/>
       <c r="I89" s="22"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="24"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="50"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
@@ -3133,12 +3141,12 @@
         <v>56</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H90" s="43"/>
       <c r="I90" s="22"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="24"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="50"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
@@ -3155,10 +3163,10 @@
       <c r="G91" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H91" s="29"/>
+      <c r="H91" s="43"/>
       <c r="I91" s="22"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="51"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -3183,15 +3191,15 @@
       <c r="G92" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H92" s="29" t="s">
-        <v>199</v>
+      <c r="H92" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="I92" s="22"/>
-      <c r="J92" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>191</v>
+      <c r="J92" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K92" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3209,10 +3217,10 @@
       <c r="G93" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="29"/>
+      <c r="H93" s="43"/>
       <c r="I93" s="22"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="24"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="50"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
@@ -3229,10 +3237,10 @@
       <c r="G94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H94" s="29"/>
+      <c r="H94" s="43"/>
       <c r="I94" s="22"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="24"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="50"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -3249,10 +3257,10 @@
       <c r="G95" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="29"/>
+      <c r="H95" s="43"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="24"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="50"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
@@ -3269,10 +3277,10 @@
       <c r="G96" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="29"/>
+      <c r="H96" s="43"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="24"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="50"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
@@ -3289,10 +3297,10 @@
       <c r="G97" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="29"/>
+      <c r="H97" s="43"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="24"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="50"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
@@ -3309,10 +3317,10 @@
       <c r="G98" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H98" s="29"/>
+      <c r="H98" s="43"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="24"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="50"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
@@ -3329,10 +3337,10 @@
       <c r="G99" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H99" s="29"/>
+      <c r="H99" s="43"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="24"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="50"/>
     </row>
     <row r="100" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
@@ -3349,10 +3357,10 @@
       <c r="G100" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H100" s="29"/>
+      <c r="H100" s="43"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="24"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="50"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
@@ -3367,12 +3375,12 @@
         <v>53</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H101" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="H101" s="43"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="24"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="50"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
@@ -3389,10 +3397,10 @@
       <c r="G102" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H102" s="29"/>
+      <c r="H102" s="43"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="24"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="50"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
@@ -3407,12 +3415,12 @@
         <v>56</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H103" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H103" s="43"/>
       <c r="I103" s="22"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="24"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="50"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
@@ -3429,10 +3437,10 @@
       <c r="G104" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="29"/>
+      <c r="H104" s="43"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="51"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -3442,7 +3450,7 @@
         <v>30</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>31</v>
@@ -3457,15 +3465,15 @@
       <c r="G105" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="43" t="s">
         <v>91</v>
       </c>
       <c r="I105" s="22"/>
-      <c r="J105" s="30" t="s">
+      <c r="J105" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K105" s="23" t="s">
-        <v>191</v>
+      <c r="K105" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -3483,10 +3491,10 @@
       <c r="G106" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="29"/>
+      <c r="H106" s="43"/>
       <c r="I106" s="22"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="24"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="50"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
@@ -3503,10 +3511,10 @@
       <c r="G107" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H107" s="29"/>
+      <c r="H107" s="43"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="24"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="50"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
@@ -3523,10 +3531,10 @@
       <c r="G108" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H108" s="29"/>
+      <c r="H108" s="43"/>
       <c r="I108" s="22"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="24"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="50"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
@@ -3543,10 +3551,10 @@
       <c r="G109" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H109" s="29"/>
+      <c r="H109" s="43"/>
       <c r="I109" s="22"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="24"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="50"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
@@ -3563,10 +3571,10 @@
       <c r="G110" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="29"/>
+      <c r="H110" s="43"/>
       <c r="I110" s="22"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="24"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="50"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
@@ -3583,10 +3591,10 @@
       <c r="G111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H111" s="29"/>
+      <c r="H111" s="43"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="24"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="50"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
@@ -3603,10 +3611,10 @@
       <c r="G112" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H112" s="29"/>
+      <c r="H112" s="43"/>
       <c r="I112" s="22"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="24"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="50"/>
     </row>
     <row r="113" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
@@ -3623,10 +3631,10 @@
       <c r="G113" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H113" s="29"/>
+      <c r="H113" s="43"/>
       <c r="I113" s="22"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="24"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="50"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
@@ -3643,10 +3651,10 @@
       <c r="G114" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="29"/>
+      <c r="H114" s="43"/>
       <c r="I114" s="22"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="24"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="50"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
@@ -3661,12 +3669,12 @@
         <v>56</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H115" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H115" s="43"/>
       <c r="I115" s="22"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="24"/>
+      <c r="J115" s="48"/>
+      <c r="K115" s="50"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
@@ -3683,10 +3691,10 @@
       <c r="G116" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H116" s="29"/>
+      <c r="H116" s="43"/>
       <c r="I116" s="22"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
@@ -3701,17 +3709,17 @@
       <c r="D117" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F117" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="26" t="s">
+      <c r="F117" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" s="43" t="s">
         <v>93</v>
       </c>
       <c r="I117" s="21"/>
@@ -3719,7 +3727,7 @@
         <v>93</v>
       </c>
       <c r="K117" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -3727,10 +3735,10 @@
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="29"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="43"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
       <c r="K118" s="21"/>
@@ -3740,10 +3748,10 @@
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="29"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="43"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
       <c r="K119" s="21"/>
@@ -3761,17 +3769,17 @@
       <c r="D120" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F120" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G120" s="26" t="s">
+      <c r="F120" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" s="43" t="s">
         <v>133</v>
       </c>
       <c r="I120" s="21" t="s">
@@ -3781,7 +3789,7 @@
         <v>133</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,10 +3797,10 @@
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="29"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="43"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
       <c r="K121" s="21"/>
@@ -3802,10 +3810,10 @@
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="29"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="43"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
       <c r="K122" s="21"/>
@@ -3821,27 +3829,27 @@
         <v>96</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E123" s="23">
+        <v>201</v>
+      </c>
+      <c r="E123" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F123" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G123" s="26" t="s">
+      <c r="F123" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G123" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H123" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>191</v>
+      <c r="H123" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I123" s="49"/>
+      <c r="J123" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K123" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -3849,39 +3857,39 @@
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="24"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="50"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="25"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="51"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E126" s="2">
         <f>ROW(F1)</f>
@@ -3893,46 +3901,46 @@
       <c r="G126" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H126" s="29" t="s">
-        <v>200</v>
+      <c r="H126" s="43" t="s">
+        <v>196</v>
       </c>
       <c r="I126" s="21"/>
       <c r="J126" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
-      <c r="E127" s="23">
+      <c r="E127" s="49">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F127" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" s="26" t="s">
+      <c r="F127" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H127" s="29"/>
+      <c r="H127" s="43"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
       <c r="K127" s="21"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
-      <c r="B128" s="32"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="29"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="43"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
       <c r="K128" s="21"/>
@@ -3948,7 +3956,7 @@
         <v>105</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E129" s="2">
         <f>ROW(F1)</f>
@@ -3960,15 +3968,15 @@
       <c r="G129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H129" s="29" t="s">
-        <v>200</v>
+      <c r="H129" s="43" t="s">
+        <v>196</v>
       </c>
       <c r="I129" s="21"/>
       <c r="J129" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -3986,7 +3994,7 @@
       <c r="G130" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H130" s="29"/>
+      <c r="H130" s="43"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
       <c r="K130" s="21"/>
@@ -4006,7 +4014,7 @@
       <c r="G131" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="29"/>
+      <c r="H131" s="43"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
       <c r="K131" s="21"/>
@@ -4022,7 +4030,7 @@
         <v>104</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E132" s="2">
         <f>ROW(F1)</f>
@@ -4034,15 +4042,15 @@
       <c r="G132" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H132" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I132" s="33"/>
+      <c r="H132" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I132" s="44"/>
       <c r="J132" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -4060,8 +4068,8 @@
       <c r="G133" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H133" s="29"/>
-      <c r="I133" s="33"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="44"/>
       <c r="J133" s="22"/>
       <c r="K133" s="21"/>
     </row>
@@ -4080,8 +4088,8 @@
       <c r="G134" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H134" s="29"/>
-      <c r="I134" s="33"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="44"/>
       <c r="J134" s="22"/>
       <c r="K134" s="21"/>
     </row>
@@ -4100,8 +4108,8 @@
       <c r="G135" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H135" s="29"/>
-      <c r="I135" s="33"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="44"/>
       <c r="J135" s="22"/>
       <c r="K135" s="21"/>
     </row>
@@ -4120,8 +4128,8 @@
       <c r="G136" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H136" s="29"/>
-      <c r="I136" s="33"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="44"/>
       <c r="J136" s="22"/>
       <c r="K136" s="21"/>
     </row>
@@ -4136,7 +4144,7 @@
         <v>111</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" ref="E137:E142" si="14">ROW(F1)</f>
@@ -4148,15 +4156,15 @@
       <c r="G137" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H137" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I137" s="33"/>
+      <c r="H137" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I137" s="44"/>
       <c r="J137" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,8 +4182,8 @@
       <c r="G138" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H138" s="29"/>
-      <c r="I138" s="33"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="44"/>
       <c r="J138" s="22"/>
       <c r="K138" s="21"/>
     </row>
@@ -4194,8 +4202,8 @@
       <c r="G139" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H139" s="29"/>
-      <c r="I139" s="33"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="44"/>
       <c r="J139" s="22"/>
       <c r="K139" s="21"/>
     </row>
@@ -4214,8 +4222,8 @@
       <c r="G140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H140" s="29"/>
-      <c r="I140" s="33"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="44"/>
       <c r="J140" s="22"/>
       <c r="K140" s="21"/>
     </row>
@@ -4234,8 +4242,8 @@
       <c r="G141" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H141" s="29"/>
-      <c r="I141" s="33"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="44"/>
       <c r="J141" s="22"/>
       <c r="K141" s="21"/>
     </row>
@@ -4254,8 +4262,8 @@
       <c r="G142" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H142" s="29"/>
-      <c r="I142" s="33"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="44"/>
       <c r="J142" s="22"/>
       <c r="K142" s="21"/>
     </row>
@@ -4270,7 +4278,7 @@
         <v>114</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" ref="E143:E149" si="15">ROW(F1)</f>
@@ -4282,15 +4290,15 @@
       <c r="G143" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H143" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="I143" s="33"/>
+      <c r="H143" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="I143" s="44"/>
       <c r="J143" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K143" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -4308,8 +4316,8 @@
       <c r="G144" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H144" s="29"/>
-      <c r="I144" s="33"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="44"/>
       <c r="J144" s="22"/>
       <c r="K144" s="21"/>
     </row>
@@ -4328,8 +4336,8 @@
       <c r="G145" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H145" s="29"/>
-      <c r="I145" s="33"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="44"/>
       <c r="J145" s="22"/>
       <c r="K145" s="21"/>
     </row>
@@ -4348,8 +4356,8 @@
       <c r="G146" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H146" s="29"/>
-      <c r="I146" s="33"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="44"/>
       <c r="J146" s="22"/>
       <c r="K146" s="21"/>
     </row>
@@ -4368,8 +4376,8 @@
       <c r="G147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H147" s="29"/>
-      <c r="I147" s="33"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="44"/>
       <c r="J147" s="22"/>
       <c r="K147" s="21"/>
     </row>
@@ -4388,8 +4396,8 @@
       <c r="G148" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H148" s="29"/>
-      <c r="I148" s="33"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="44"/>
       <c r="J148" s="22"/>
       <c r="K148" s="21"/>
     </row>
@@ -4408,8 +4416,8 @@
       <c r="G149" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H149" s="29"/>
-      <c r="I149" s="33"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="44"/>
       <c r="J149" s="22"/>
       <c r="K149" s="21"/>
     </row>
@@ -4424,7 +4432,7 @@
         <v>117</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E150" s="2">
         <f t="shared" ref="E150:E156" si="16">ROW(F1)</f>
@@ -4436,15 +4444,15 @@
       <c r="G150" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H150" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I150" s="33"/>
+      <c r="H150" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I150" s="44"/>
       <c r="J150" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -4462,8 +4470,8 @@
       <c r="G151" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H151" s="29"/>
-      <c r="I151" s="33"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="44"/>
       <c r="J151" s="22"/>
       <c r="K151" s="21"/>
     </row>
@@ -4482,8 +4490,8 @@
       <c r="G152" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H152" s="29"/>
-      <c r="I152" s="33"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="44"/>
       <c r="J152" s="22"/>
       <c r="K152" s="21"/>
     </row>
@@ -4502,8 +4510,8 @@
       <c r="G153" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H153" s="29"/>
-      <c r="I153" s="33"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="44"/>
       <c r="J153" s="22"/>
       <c r="K153" s="21"/>
     </row>
@@ -4522,8 +4530,8 @@
       <c r="G154" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H154" s="29"/>
-      <c r="I154" s="33"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="44"/>
       <c r="J154" s="22"/>
       <c r="K154" s="21"/>
     </row>
@@ -4542,8 +4550,8 @@
       <c r="G155" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H155" s="29"/>
-      <c r="I155" s="33"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="44"/>
       <c r="J155" s="22"/>
       <c r="K155" s="21"/>
     </row>
@@ -4562,8 +4570,8 @@
       <c r="G156" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H156" s="29"/>
-      <c r="I156" s="33"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="44"/>
       <c r="J156" s="22"/>
       <c r="K156" s="21"/>
     </row>
@@ -4578,7 +4586,7 @@
         <v>119</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E157" s="2">
         <f t="shared" ref="E157:E163" si="17">ROW(F1)</f>
@@ -4590,15 +4598,15 @@
       <c r="G157" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H157" s="29" t="s">
+      <c r="H157" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I157" s="33"/>
+      <c r="I157" s="44"/>
       <c r="J157" s="22" t="s">
         <v>121</v>
       </c>
       <c r="K157" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -4616,8 +4624,8 @@
       <c r="G158" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H158" s="29"/>
-      <c r="I158" s="33"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="44"/>
       <c r="J158" s="22"/>
       <c r="K158" s="21"/>
     </row>
@@ -4636,8 +4644,8 @@
       <c r="G159" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H159" s="29"/>
-      <c r="I159" s="33"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="44"/>
       <c r="J159" s="22"/>
       <c r="K159" s="21"/>
     </row>
@@ -4656,8 +4664,8 @@
       <c r="G160" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H160" s="29"/>
-      <c r="I160" s="33"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="44"/>
       <c r="J160" s="22"/>
       <c r="K160" s="21"/>
     </row>
@@ -4676,8 +4684,8 @@
       <c r="G161" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H161" s="29"/>
-      <c r="I161" s="33"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="44"/>
       <c r="J161" s="22"/>
       <c r="K161" s="21"/>
     </row>
@@ -4696,8 +4704,8 @@
       <c r="G162" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H162" s="29"/>
-      <c r="I162" s="33"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="44"/>
       <c r="J162" s="22"/>
       <c r="K162" s="21"/>
     </row>
@@ -4716,8 +4724,8 @@
       <c r="G163" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H163" s="29"/>
-      <c r="I163" s="33"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="44"/>
       <c r="J163" s="22"/>
       <c r="K163" s="21"/>
     </row>
@@ -4732,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2">
         <f>ROW(F1)</f>
@@ -4752,7 +4760,7 @@
         <v>125</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
@@ -4766,7 +4774,7 @@
         <v>127</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2">
         <f>ROW(F1)</f>
@@ -4786,142 +4794,141 @@
         <v>129</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E166" s="15"/>
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="36"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="28"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="36"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="28"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="37" t="s">
+      <c r="B169" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="38"/>
-      <c r="J169" s="38"/>
-      <c r="K169" s="39"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="31"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="40">
+      <c r="B170" s="32">
         <v>45208</v>
       </c>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="41"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41"/>
-      <c r="J170" s="41"/>
-      <c r="K170" s="42"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="34"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="43" t="s">
+      <c r="B172" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="43" t="s">
+      <c r="D172" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E172" s="45" t="s">
+      <c r="E172" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="46"/>
-      <c r="G172" s="47" t="s">
+      <c r="F172" s="38"/>
+      <c r="G172" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H172" s="47" t="s">
+      <c r="H172" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I172" s="43" t="s">
+      <c r="I172" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J172" s="49" t="s">
+      <c r="J172" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K172" s="43" t="s">
+      <c r="K172" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="44"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="44"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
       <c r="E173" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G173" s="48"/>
-      <c r="H173" s="48"/>
-      <c r="I173" s="44"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="44"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="36"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E174" s="2">
@@ -4934,18 +4941,22 @@
       <c r="G174" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H174" s="26" t="s">
+      <c r="H174" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="I174" s="30"/>
-      <c r="J174" s="30"/>
-      <c r="K174" s="23"/>
+      <c r="K174" s="49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="24"/>
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
       <c r="E175" s="2">
         <f t="shared" si="18"/>
         <v>2</v>
@@ -4956,16 +4967,16 @@
       <c r="G175" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H175" s="27"/>
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="24"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="48"/>
+      <c r="J175" s="48"/>
+      <c r="K175" s="50"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="24"/>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
+      <c r="A176" s="50"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
       <c r="E176" s="2">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -4976,16 +4987,16 @@
       <c r="G176" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H176" s="27"/>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="24"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="50"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="24"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
+      <c r="A177" s="50"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
       <c r="E177" s="2">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -4996,16 +5007,16 @@
       <c r="G177" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H177" s="27"/>
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
-      <c r="K177" s="24"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="50"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="24"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
+      <c r="A178" s="50"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
       <c r="E178" s="2">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -5016,16 +5027,16 @@
       <c r="G178" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H178" s="27"/>
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="24"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="48"/>
+      <c r="J178" s="48"/>
+      <c r="K178" s="50"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
+      <c r="A179" s="50"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
       <c r="E179" s="2">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -5036,16 +5047,16 @@
       <c r="G179" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H179" s="27"/>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="24"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="50"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="24"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
+      <c r="A180" s="50"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
       <c r="E180" s="2">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -5056,16 +5067,16 @@
       <c r="G180" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="27"/>
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
-      <c r="K180" s="24"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="48"/>
+      <c r="J180" s="48"/>
+      <c r="K180" s="50"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="24"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
+      <c r="A181" s="50"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
       <c r="E181" s="2">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -5076,16 +5087,16 @@
       <c r="G181" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H181" s="27"/>
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="24"/>
+      <c r="H181" s="46"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="48"/>
+      <c r="K181" s="50"/>
     </row>
     <row r="182" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="24"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="A182" s="50"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
       <c r="E182" s="2">
         <f>ROW(F10)</f>
         <v>10</v>
@@ -5096,16 +5107,16 @@
       <c r="G182" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H182" s="27"/>
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
-      <c r="K182" s="24"/>
+      <c r="H182" s="46"/>
+      <c r="I182" s="48"/>
+      <c r="J182" s="48"/>
+      <c r="K182" s="50"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="24"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
+      <c r="A183" s="50"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
       <c r="E183" s="2">
         <f>ROW(F11)</f>
         <v>11</v>
@@ -5116,16 +5127,16 @@
       <c r="G183" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H183" s="27"/>
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
-      <c r="K183" s="24"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="48"/>
+      <c r="J183" s="48"/>
+      <c r="K183" s="50"/>
     </row>
     <row r="184" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A184" s="24"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
+      <c r="A184" s="50"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="2">
         <f>ROW(F12)</f>
         <v>12</v>
@@ -5136,16 +5147,16 @@
       <c r="G184" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H184" s="27"/>
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
-      <c r="K184" s="24"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="48"/>
+      <c r="J184" s="48"/>
+      <c r="K184" s="50"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="24"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
+      <c r="A185" s="50"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
       <c r="E185" s="2">
         <f>ROW(F14)</f>
         <v>14</v>
@@ -5156,16 +5167,16 @@
       <c r="G185" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H185" s="27"/>
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
-      <c r="K185" s="24"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="48"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="50"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
+      <c r="A186" s="50"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="48"/>
       <c r="E186" s="2">
         <f t="shared" ref="E186:E187" si="19">ROW(F16)</f>
         <v>16</v>
@@ -5174,18 +5185,18 @@
         <v>56</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H186" s="27"/>
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
-      <c r="K186" s="24"/>
+        <v>193</v>
+      </c>
+      <c r="H186" s="46"/>
+      <c r="I186" s="48"/>
+      <c r="J186" s="48"/>
+      <c r="K186" s="50"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="25"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="2">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -5196,23 +5207,23 @@
       <c r="G187" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H187" s="28"/>
-      <c r="I187" s="32"/>
-      <c r="J187" s="32"/>
-      <c r="K187" s="25"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="51"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="49" t="s">
         <v>137</v>
       </c>
       <c r="B188" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="E188" s="2">
         <f t="shared" ref="E188:E195" si="20">ROW(F1)</f>
@@ -5224,15 +5235,19 @@
       <c r="G188" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H188" s="29" t="s">
-        <v>155</v>
+      <c r="H188" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="I188" s="22"/>
-      <c r="J188" s="30"/>
-      <c r="K188" s="23"/>
+      <c r="J188" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K188" s="49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="24"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
@@ -5246,13 +5261,13 @@
       <c r="G189" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H189" s="29"/>
+      <c r="H189" s="43"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="31"/>
-      <c r="K189" s="24"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="50"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="24"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
@@ -5266,13 +5281,13 @@
       <c r="G190" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H190" s="29"/>
+      <c r="H190" s="43"/>
       <c r="I190" s="22"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="24"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="50"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
@@ -5286,13 +5301,13 @@
       <c r="G191" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H191" s="29"/>
+      <c r="H191" s="43"/>
       <c r="I191" s="22"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="24"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="50"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
@@ -5306,13 +5321,13 @@
       <c r="G192" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H192" s="29"/>
+      <c r="H192" s="43"/>
       <c r="I192" s="22"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="24"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="50"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
+      <c r="A193" s="50"/>
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
@@ -5326,13 +5341,13 @@
       <c r="G193" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H193" s="29"/>
+      <c r="H193" s="43"/>
       <c r="I193" s="22"/>
-      <c r="J193" s="31"/>
-      <c r="K193" s="24"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="50"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
+      <c r="A194" s="50"/>
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
@@ -5346,13 +5361,13 @@
       <c r="G194" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H194" s="29"/>
+      <c r="H194" s="43"/>
       <c r="I194" s="22"/>
-      <c r="J194" s="31"/>
-      <c r="K194" s="24"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="50"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
@@ -5366,13 +5381,13 @@
       <c r="G195" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H195" s="29"/>
+      <c r="H195" s="43"/>
       <c r="I195" s="22"/>
-      <c r="J195" s="31"/>
-      <c r="K195" s="24"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="50"/>
     </row>
     <row r="196" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
+      <c r="A196" s="50"/>
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
@@ -5386,13 +5401,13 @@
       <c r="G196" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H196" s="29"/>
+      <c r="H196" s="43"/>
       <c r="I196" s="22"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="24"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="50"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="24"/>
+      <c r="A197" s="50"/>
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
@@ -5406,13 +5421,13 @@
       <c r="G197" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H197" s="29"/>
+      <c r="H197" s="43"/>
       <c r="I197" s="22"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="24"/>
+      <c r="J197" s="48"/>
+      <c r="K197" s="50"/>
     </row>
     <row r="198" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A198" s="24"/>
+      <c r="A198" s="50"/>
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
@@ -5426,13 +5441,13 @@
       <c r="G198" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H198" s="29"/>
+      <c r="H198" s="43"/>
       <c r="I198" s="22"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="24"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="50"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="24"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
@@ -5446,13 +5461,13 @@
       <c r="G199" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H199" s="29"/>
+      <c r="H199" s="43"/>
       <c r="I199" s="22"/>
-      <c r="J199" s="31"/>
-      <c r="K199" s="24"/>
+      <c r="J199" s="48"/>
+      <c r="K199" s="50"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
+      <c r="A200" s="50"/>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
@@ -5464,15 +5479,15 @@
         <v>56</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H200" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H200" s="43"/>
       <c r="I200" s="22"/>
-      <c r="J200" s="31"/>
-      <c r="K200" s="24"/>
+      <c r="J200" s="48"/>
+      <c r="K200" s="50"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="25"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
@@ -5486,13 +5501,13 @@
       <c r="G201" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H201" s="29"/>
+      <c r="H201" s="43"/>
       <c r="I201" s="22"/>
-      <c r="J201" s="32"/>
-      <c r="K201" s="25"/>
+      <c r="J201" s="25"/>
+      <c r="K201" s="51"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="23" t="s">
+      <c r="A202" s="49" t="s">
         <v>138</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -5514,15 +5529,19 @@
       <c r="G202" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H202" s="29" t="s">
+      <c r="H202" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="I202" s="22"/>
+      <c r="J202" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="I202" s="22"/>
-      <c r="J202" s="30"/>
-      <c r="K202" s="23"/>
+      <c r="K202" s="49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="24"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
@@ -5536,13 +5555,13 @@
       <c r="G203" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H203" s="29"/>
+      <c r="H203" s="43"/>
       <c r="I203" s="22"/>
-      <c r="J203" s="31"/>
-      <c r="K203" s="24"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="50"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
@@ -5556,13 +5575,13 @@
       <c r="G204" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H204" s="29"/>
+      <c r="H204" s="43"/>
       <c r="I204" s="22"/>
-      <c r="J204" s="31"/>
-      <c r="K204" s="24"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="50"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
@@ -5576,13 +5595,13 @@
       <c r="G205" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H205" s="29"/>
+      <c r="H205" s="43"/>
       <c r="I205" s="22"/>
-      <c r="J205" s="31"/>
-      <c r="K205" s="24"/>
+      <c r="J205" s="48"/>
+      <c r="K205" s="50"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
@@ -5596,13 +5615,13 @@
       <c r="G206" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H206" s="29"/>
+      <c r="H206" s="43"/>
       <c r="I206" s="22"/>
-      <c r="J206" s="31"/>
-      <c r="K206" s="24"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="50"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
@@ -5616,13 +5635,13 @@
       <c r="G207" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H207" s="29"/>
+      <c r="H207" s="43"/>
       <c r="I207" s="22"/>
-      <c r="J207" s="31"/>
-      <c r="K207" s="24"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="50"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="24"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
@@ -5636,13 +5655,13 @@
       <c r="G208" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H208" s="29"/>
+      <c r="H208" s="43"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="31"/>
-      <c r="K208" s="24"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="50"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="24"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
@@ -5656,13 +5675,13 @@
       <c r="G209" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H209" s="29"/>
+      <c r="H209" s="43"/>
       <c r="I209" s="22"/>
-      <c r="J209" s="31"/>
-      <c r="K209" s="24"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="50"/>
     </row>
     <row r="210" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
@@ -5676,13 +5695,13 @@
       <c r="G210" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H210" s="29"/>
+      <c r="H210" s="43"/>
       <c r="I210" s="22"/>
-      <c r="J210" s="31"/>
-      <c r="K210" s="24"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="50"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
@@ -5696,13 +5715,13 @@
       <c r="G211" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H211" s="29"/>
+      <c r="H211" s="43"/>
       <c r="I211" s="22"/>
-      <c r="J211" s="31"/>
-      <c r="K211" s="24"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="50"/>
     </row>
     <row r="212" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A212" s="24"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
@@ -5716,13 +5735,13 @@
       <c r="G212" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H212" s="29"/>
+      <c r="H212" s="43"/>
       <c r="I212" s="22"/>
-      <c r="J212" s="31"/>
-      <c r="K212" s="24"/>
+      <c r="J212" s="48"/>
+      <c r="K212" s="50"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="24"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
@@ -5736,13 +5755,13 @@
       <c r="G213" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H213" s="29"/>
+      <c r="H213" s="43"/>
       <c r="I213" s="22"/>
-      <c r="J213" s="31"/>
-      <c r="K213" s="24"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="50"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="24"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
@@ -5754,15 +5773,15 @@
         <v>56</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H214" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H214" s="43"/>
       <c r="I214" s="22"/>
-      <c r="J214" s="31"/>
-      <c r="K214" s="24"/>
+      <c r="J214" s="48"/>
+      <c r="K214" s="50"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="25"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
@@ -5776,23 +5795,23 @@
       <c r="G215" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H215" s="29"/>
+      <c r="H215" s="43"/>
       <c r="I215" s="22"/>
-      <c r="J215" s="32"/>
-      <c r="K215" s="25"/>
+      <c r="J215" s="25"/>
+      <c r="K215" s="51"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="23" t="s">
+      <c r="A216" s="49" t="s">
         <v>139</v>
       </c>
       <c r="B216" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="E216" s="2">
         <f t="shared" ref="E216:E223" si="24">ROW(F1)</f>
@@ -5804,15 +5823,19 @@
       <c r="G216" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H216" s="29" t="s">
+      <c r="H216" s="43" t="s">
         <v>155</v>
       </c>
       <c r="I216" s="22"/>
-      <c r="J216" s="30"/>
-      <c r="K216" s="23"/>
+      <c r="J216" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K216" s="49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
@@ -5826,13 +5849,13 @@
       <c r="G217" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H217" s="29"/>
+      <c r="H217" s="43"/>
       <c r="I217" s="22"/>
-      <c r="J217" s="31"/>
-      <c r="K217" s="24"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="50"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="24"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
@@ -5846,13 +5869,13 @@
       <c r="G218" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H218" s="29"/>
+      <c r="H218" s="43"/>
       <c r="I218" s="22"/>
-      <c r="J218" s="31"/>
-      <c r="K218" s="24"/>
+      <c r="J218" s="48"/>
+      <c r="K218" s="50"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="24"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
@@ -5866,13 +5889,13 @@
       <c r="G219" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H219" s="29"/>
+      <c r="H219" s="43"/>
       <c r="I219" s="22"/>
-      <c r="J219" s="31"/>
-      <c r="K219" s="24"/>
+      <c r="J219" s="48"/>
+      <c r="K219" s="50"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="24"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
@@ -5886,13 +5909,13 @@
       <c r="G220" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H220" s="29"/>
+      <c r="H220" s="43"/>
       <c r="I220" s="22"/>
-      <c r="J220" s="31"/>
-      <c r="K220" s="24"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="50"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="24"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
@@ -5906,13 +5929,13 @@
       <c r="G221" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H221" s="29"/>
+      <c r="H221" s="43"/>
       <c r="I221" s="22"/>
-      <c r="J221" s="31"/>
-      <c r="K221" s="24"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="50"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="24"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="22"/>
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
@@ -5926,13 +5949,13 @@
       <c r="G222" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H222" s="29"/>
+      <c r="H222" s="43"/>
       <c r="I222" s="22"/>
-      <c r="J222" s="31"/>
-      <c r="K222" s="24"/>
+      <c r="J222" s="48"/>
+      <c r="K222" s="50"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="24"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
@@ -5946,13 +5969,13 @@
       <c r="G223" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H223" s="29"/>
+      <c r="H223" s="43"/>
       <c r="I223" s="22"/>
-      <c r="J223" s="31"/>
-      <c r="K223" s="24"/>
+      <c r="J223" s="48"/>
+      <c r="K223" s="50"/>
     </row>
     <row r="224" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A224" s="24"/>
+      <c r="A224" s="50"/>
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
@@ -5966,13 +5989,13 @@
       <c r="G224" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H224" s="29"/>
+      <c r="H224" s="43"/>
       <c r="I224" s="22"/>
-      <c r="J224" s="31"/>
-      <c r="K224" s="24"/>
+      <c r="J224" s="48"/>
+      <c r="K224" s="50"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="24"/>
+      <c r="A225" s="50"/>
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
@@ -5986,13 +6009,13 @@
       <c r="G225" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H225" s="29"/>
+      <c r="H225" s="43"/>
       <c r="I225" s="22"/>
-      <c r="J225" s="31"/>
-      <c r="K225" s="24"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="50"/>
     </row>
     <row r="226" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A226" s="24"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="22"/>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
@@ -6006,13 +6029,13 @@
       <c r="G226" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H226" s="29"/>
+      <c r="H226" s="43"/>
       <c r="I226" s="22"/>
-      <c r="J226" s="31"/>
-      <c r="K226" s="24"/>
+      <c r="J226" s="48"/>
+      <c r="K226" s="50"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="24"/>
+      <c r="A227" s="50"/>
       <c r="B227" s="22"/>
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
@@ -6026,13 +6049,13 @@
       <c r="G227" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H227" s="29"/>
+      <c r="H227" s="43"/>
       <c r="I227" s="22"/>
-      <c r="J227" s="31"/>
-      <c r="K227" s="24"/>
+      <c r="J227" s="48"/>
+      <c r="K227" s="50"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
+      <c r="A228" s="50"/>
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
@@ -6044,15 +6067,15 @@
         <v>56</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H228" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="H228" s="43"/>
       <c r="I228" s="22"/>
-      <c r="J228" s="31"/>
-      <c r="K228" s="24"/>
+      <c r="J228" s="48"/>
+      <c r="K228" s="50"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="25"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="22"/>
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
@@ -6066,12 +6089,12 @@
       <c r="G229" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H229" s="29"/>
+      <c r="H229" s="43"/>
       <c r="I229" s="22"/>
-      <c r="J229" s="32"/>
-      <c r="K229" s="25"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J229" s="25"/>
+      <c r="K229" s="51"/>
+    </row>
+    <row r="230" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>140</v>
       </c>
@@ -6079,12 +6102,12 @@
         <v>88</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E230" s="10">
+        <v>158</v>
+      </c>
+      <c r="E230" s="2">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
@@ -6092,74 +6115,65 @@
         <v>53</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="H230" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I230" s="10"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="2"/>
-    </row>
-    <row r="231" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="J230" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E231" s="10">
+      <c r="B231" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E231" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F231" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G231" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H231" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I231" s="10"/>
-      <c r="J231" s="13"/>
-      <c r="K231" s="2"/>
+      <c r="F231" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H231" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I231" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J231" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K231" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B232" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C232" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E232" s="23">
-        <f>ROW(F1)</f>
-        <v>1</v>
-      </c>
-      <c r="F232" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G232" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H232" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I232" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="A232" s="21"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="46"/>
+      <c r="G232" s="46"/>
+      <c r="H232" s="43"/>
+      <c r="I232" s="21"/>
       <c r="J232" s="22"/>
       <c r="K232" s="21"/>
     </row>
@@ -6168,159 +6182,178 @@
       <c r="B233" s="22"/>
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="29"/>
+      <c r="E233" s="51"/>
+      <c r="F233" s="47"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="43"/>
       <c r="I233" s="21"/>
       <c r="J233" s="22"/>
       <c r="K233" s="21"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="21"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="21"/>
-      <c r="J234" s="22"/>
-      <c r="K234" s="21"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B235" s="22" t="s">
+      <c r="A234" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B234" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C235" s="22" t="s">
+      <c r="C234" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D235" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E235" s="23">
+      <c r="D234" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E234" s="49">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F235" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G235" s="26" t="s">
+      <c r="F234" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H235" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I235" s="23"/>
-      <c r="J235" s="30"/>
-      <c r="K235" s="23"/>
+      <c r="H234" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I234" s="49"/>
+      <c r="J234" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K234" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="21"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="46"/>
+      <c r="G235" s="46"/>
+      <c r="H235" s="43"/>
+      <c r="I235" s="50"/>
+      <c r="J235" s="48"/>
+      <c r="K235" s="50"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="29"/>
-      <c r="I236" s="24"/>
-      <c r="J236" s="31"/>
-      <c r="K236" s="24"/>
+      <c r="E236" s="51"/>
+      <c r="F236" s="47"/>
+      <c r="G236" s="47"/>
+      <c r="H236" s="43"/>
+      <c r="I236" s="51"/>
+      <c r="J236" s="25"/>
+      <c r="K236" s="51"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="21"/>
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="25"/>
-      <c r="F237" s="28"/>
-      <c r="G237" s="28"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="25"/>
-      <c r="J237" s="32"/>
-      <c r="K237" s="25"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B238" s="30" t="s">
+      <c r="A237" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B237" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C238" s="22" t="s">
+      <c r="C237" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D238" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E238" s="2">
+      <c r="D237" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E237" s="2">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F238" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="10" t="s">
+      <c r="F237" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G237" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H238" s="29" t="s">
-        <v>200</v>
-      </c>
+      <c r="H237" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I237" s="21"/>
+      <c r="J237" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K237" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="21"/>
+      <c r="B238" s="48"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="2">
+        <f>ROW(F2)</f>
+        <v>2</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H238" s="43"/>
       <c r="I238" s="21"/>
       <c r="J238" s="22"/>
       <c r="K238" s="21"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="21"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+      <c r="A239" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B239" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E239" s="2">
+        <f>ROW(F1)</f>
+        <v>1</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H239" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I239" s="21"/>
+      <c r="J239" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K239" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="21"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="2">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F239" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H239" s="29"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="22"/>
-      <c r="K239" s="21"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B240" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C240" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D240" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E240" s="2">
-        <f>ROW(F1)</f>
-        <v>1</v>
-      </c>
       <c r="F240" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H240" s="29" t="s">
-        <v>200</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H240" s="43"/>
       <c r="I240" s="21"/>
       <c r="J240" s="22"/>
       <c r="K240" s="21"/>
@@ -6331,67 +6364,71 @@
       <c r="C241" s="22"/>
       <c r="D241" s="22"/>
       <c r="E241" s="2">
-        <f>ROW(F2)</f>
-        <v>2</v>
+        <f>ROW(F3)</f>
+        <v>3</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H241" s="29"/>
+        <v>98</v>
+      </c>
+      <c r="H241" s="43"/>
       <c r="I241" s="21"/>
       <c r="J241" s="22"/>
       <c r="K241" s="21"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="21"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
-      <c r="D242" s="22"/>
+      <c r="A242" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B242" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D242" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E242" s="2">
-        <f>ROW(F3)</f>
-        <v>3</v>
-      </c>
-      <c r="F242" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G242" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H242" s="29"/>
-      <c r="I242" s="21"/>
-      <c r="J242" s="22"/>
-      <c r="K242" s="21"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B243" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D243" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E243" s="2">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
+      <c r="F242" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G242" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H242" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I242" s="44"/>
+      <c r="J242" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K242" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="21"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="2">
+        <f>ROW(F2)</f>
+        <v>2</v>
+      </c>
       <c r="F243" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H243" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I243" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="H243" s="43"/>
+      <c r="I243" s="44"/>
       <c r="J243" s="22"/>
       <c r="K243" s="21"/>
     </row>
@@ -6401,17 +6438,17 @@
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
       <c r="E244" s="2">
-        <f>ROW(F2)</f>
-        <v>2</v>
+        <f>ROW(F3)</f>
+        <v>3</v>
       </c>
       <c r="F244" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H244" s="29"/>
-      <c r="I244" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="H244" s="43"/>
+      <c r="I244" s="44"/>
       <c r="J244" s="22"/>
       <c r="K244" s="21"/>
     </row>
@@ -6421,17 +6458,17 @@
       <c r="C245" s="22"/>
       <c r="D245" s="22"/>
       <c r="E245" s="2">
-        <f>ROW(F3)</f>
-        <v>3</v>
+        <f>ROW(F4)</f>
+        <v>4</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H245" s="29"/>
-      <c r="I245" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="H245" s="43"/>
+      <c r="I245" s="44"/>
       <c r="J245" s="22"/>
       <c r="K245" s="21"/>
     </row>
@@ -6441,67 +6478,71 @@
       <c r="C246" s="22"/>
       <c r="D246" s="22"/>
       <c r="E246" s="2">
-        <f>ROW(F4)</f>
-        <v>4</v>
+        <f>ROW(F5)</f>
+        <v>5</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H246" s="29"/>
-      <c r="I246" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="H246" s="43"/>
+      <c r="I246" s="44"/>
       <c r="J246" s="22"/>
       <c r="K246" s="21"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="21"/>
-      <c r="B247" s="22"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="22"/>
+      <c r="A247" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D247" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E247" s="2">
-        <f>ROW(F5)</f>
-        <v>5</v>
+        <f t="shared" ref="E247:E252" si="26">ROW(F1)</f>
+        <v>1</v>
       </c>
       <c r="F247" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H247" s="29"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="22"/>
-      <c r="K247" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="H247" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I247" s="44"/>
+      <c r="J247" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K247" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B248" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C248" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D248" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A248" s="21"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="2">
-        <f t="shared" ref="E248:E253" si="26">ROW(F1)</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="F248" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H248" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I248" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="H248" s="43"/>
+      <c r="I248" s="44"/>
       <c r="J248" s="22"/>
       <c r="K248" s="21"/>
     </row>
@@ -6512,16 +6553,16 @@
       <c r="D249" s="22"/>
       <c r="E249" s="2">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F249" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H249" s="29"/>
-      <c r="I249" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="H249" s="43"/>
+      <c r="I249" s="44"/>
       <c r="J249" s="22"/>
       <c r="K249" s="21"/>
     </row>
@@ -6532,16 +6573,16 @@
       <c r="D250" s="22"/>
       <c r="E250" s="2">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H250" s="29"/>
-      <c r="I250" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="H250" s="43"/>
+      <c r="I250" s="44"/>
       <c r="J250" s="22"/>
       <c r="K250" s="21"/>
     </row>
@@ -6552,16 +6593,16 @@
       <c r="D251" s="22"/>
       <c r="E251" s="2">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H251" s="29"/>
-      <c r="I251" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="H251" s="43"/>
+      <c r="I251" s="44"/>
       <c r="J251" s="22"/>
       <c r="K251" s="21"/>
     </row>
@@ -6572,66 +6613,70 @@
       <c r="D252" s="22"/>
       <c r="E252" s="2">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H252" s="29"/>
-      <c r="I252" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="H252" s="43"/>
+      <c r="I252" s="44"/>
       <c r="J252" s="22"/>
       <c r="K252" s="21"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="21"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D253" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E253" s="2">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" ref="E253:E259" si="27">ROW(F1)</f>
+        <v>1</v>
       </c>
       <c r="F253" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H253" s="29"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="22"/>
-      <c r="K253" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="H253" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="I253" s="44"/>
+      <c r="J253" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K253" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B254" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D254" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A254" s="21"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="2">
-        <f t="shared" ref="E254:E260" si="27">ROW(F1)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="F254" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H254" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="I254" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="H254" s="43"/>
+      <c r="I254" s="44"/>
       <c r="J254" s="22"/>
       <c r="K254" s="21"/>
     </row>
@@ -6642,16 +6687,16 @@
       <c r="D255" s="22"/>
       <c r="E255" s="2">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F255" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H255" s="29"/>
-      <c r="I255" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="H255" s="43"/>
+      <c r="I255" s="44"/>
       <c r="J255" s="22"/>
       <c r="K255" s="21"/>
     </row>
@@ -6662,16 +6707,16 @@
       <c r="D256" s="22"/>
       <c r="E256" s="2">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H256" s="29"/>
-      <c r="I256" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="H256" s="43"/>
+      <c r="I256" s="44"/>
       <c r="J256" s="22"/>
       <c r="K256" s="21"/>
     </row>
@@ -6682,16 +6727,16 @@
       <c r="D257" s="22"/>
       <c r="E257" s="2">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H257" s="29"/>
-      <c r="I257" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="H257" s="43"/>
+      <c r="I257" s="44"/>
       <c r="J257" s="22"/>
       <c r="K257" s="21"/>
     </row>
@@ -6702,16 +6747,16 @@
       <c r="D258" s="22"/>
       <c r="E258" s="2">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F258" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H258" s="29"/>
-      <c r="I258" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="H258" s="43"/>
+      <c r="I258" s="44"/>
       <c r="J258" s="22"/>
       <c r="K258" s="21"/>
     </row>
@@ -6722,66 +6767,70 @@
       <c r="D259" s="22"/>
       <c r="E259" s="2">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F259" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H259" s="29"/>
-      <c r="I259" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="H259" s="43"/>
+      <c r="I259" s="44"/>
       <c r="J259" s="22"/>
       <c r="K259" s="21"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="21"/>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
+      <c r="A260" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E260" s="2">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" ref="E260:E266" si="28">ROW(F1)</f>
+        <v>1</v>
       </c>
       <c r="F260" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H260" s="29"/>
-      <c r="I260" s="33"/>
-      <c r="J260" s="22"/>
-      <c r="K260" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="H260" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I260" s="44"/>
+      <c r="J260" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K260" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B261" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D261" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A261" s="21"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
       <c r="E261" s="2">
-        <f t="shared" ref="E261:E267" si="28">ROW(F1)</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>2</v>
       </c>
       <c r="F261" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H261" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I261" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="H261" s="43"/>
+      <c r="I261" s="44"/>
       <c r="J261" s="22"/>
       <c r="K261" s="21"/>
     </row>
@@ -6792,16 +6841,16 @@
       <c r="D262" s="22"/>
       <c r="E262" s="2">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F262" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H262" s="29"/>
-      <c r="I262" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="H262" s="43"/>
+      <c r="I262" s="44"/>
       <c r="J262" s="22"/>
       <c r="K262" s="21"/>
     </row>
@@ -6812,16 +6861,16 @@
       <c r="D263" s="22"/>
       <c r="E263" s="2">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H263" s="29"/>
-      <c r="I263" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="H263" s="43"/>
+      <c r="I263" s="44"/>
       <c r="J263" s="22"/>
       <c r="K263" s="21"/>
     </row>
@@ -6832,16 +6881,16 @@
       <c r="D264" s="22"/>
       <c r="E264" s="2">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H264" s="29"/>
-      <c r="I264" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="H264" s="43"/>
+      <c r="I264" s="44"/>
       <c r="J264" s="22"/>
       <c r="K264" s="21"/>
     </row>
@@ -6852,16 +6901,16 @@
       <c r="D265" s="22"/>
       <c r="E265" s="2">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F265" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H265" s="29"/>
-      <c r="I265" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="H265" s="43"/>
+      <c r="I265" s="44"/>
       <c r="J265" s="22"/>
       <c r="K265" s="21"/>
     </row>
@@ -6872,66 +6921,70 @@
       <c r="D266" s="22"/>
       <c r="E266" s="2">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F266" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H266" s="29"/>
-      <c r="I266" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="H266" s="43"/>
+      <c r="I266" s="44"/>
       <c r="J266" s="22"/>
       <c r="K266" s="21"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="21"/>
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
+      <c r="A267" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E267" s="2">
-        <f t="shared" si="28"/>
-        <v>7</v>
+        <f t="shared" ref="E267:E273" si="29">ROW(F1)</f>
+        <v>1</v>
       </c>
       <c r="F267" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H267" s="29"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="22"/>
-      <c r="K267" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="H267" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I267" s="44"/>
+      <c r="J267" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K267" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B268" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A268" s="21"/>
+      <c r="B268" s="22"/>
+      <c r="C268" s="22"/>
+      <c r="D268" s="22"/>
       <c r="E268" s="2">
-        <f t="shared" ref="E268:E274" si="29">ROW(F1)</f>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="F268" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H268" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I268" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="H268" s="43"/>
+      <c r="I268" s="44"/>
       <c r="J268" s="22"/>
       <c r="K268" s="21"/>
     </row>
@@ -6942,16 +6995,16 @@
       <c r="D269" s="22"/>
       <c r="E269" s="2">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F269" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H269" s="29"/>
-      <c r="I269" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="H269" s="43"/>
+      <c r="I269" s="44"/>
       <c r="J269" s="22"/>
       <c r="K269" s="21"/>
     </row>
@@ -6962,16 +7015,16 @@
       <c r="D270" s="22"/>
       <c r="E270" s="2">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H270" s="29"/>
-      <c r="I270" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="H270" s="43"/>
+      <c r="I270" s="44"/>
       <c r="J270" s="22"/>
       <c r="K270" s="21"/>
     </row>
@@ -6982,16 +7035,16 @@
       <c r="D271" s="22"/>
       <c r="E271" s="2">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H271" s="29"/>
-      <c r="I271" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="H271" s="43"/>
+      <c r="I271" s="44"/>
       <c r="J271" s="22"/>
       <c r="K271" s="21"/>
     </row>
@@ -7002,16 +7055,16 @@
       <c r="D272" s="22"/>
       <c r="E272" s="2">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F272" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H272" s="29"/>
-      <c r="I272" s="33"/>
+        <v>120</v>
+      </c>
+      <c r="H272" s="43"/>
+      <c r="I272" s="44"/>
       <c r="J272" s="22"/>
       <c r="K272" s="21"/>
     </row>
@@ -7022,40 +7075,54 @@
       <c r="D273" s="22"/>
       <c r="E273" s="2">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F273" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H273" s="29"/>
-      <c r="I273" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="H273" s="43"/>
+      <c r="I273" s="44"/>
       <c r="J273" s="22"/>
       <c r="K273" s="21"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="21"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
+    <row r="274" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E274" s="2">
-        <f t="shared" si="29"/>
-        <v>7</v>
+        <f>ROW(F1)</f>
+        <v>1</v>
       </c>
       <c r="F274" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H274" s="29"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="22"/>
-      <c r="K274" s="21"/>
-    </row>
-    <row r="275" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="H274" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I274" s="14"/>
+      <c r="J274" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>151</v>
       </c>
@@ -7063,10 +7130,10 @@
         <v>95</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E275" s="2">
         <f>ROW(F1)</f>
@@ -7076,405 +7143,478 @@
         <v>53</v>
       </c>
       <c r="G275" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I275" s="14"/>
-      <c r="J275" s="13"/>
-      <c r="K275" s="2"/>
-    </row>
-    <row r="276" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D276" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E276" s="2">
+      <c r="J275" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K275" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="27"/>
+      <c r="D277" s="27"/>
+      <c r="E277" s="27"/>
+      <c r="F277" s="27"/>
+      <c r="G277" s="27"/>
+      <c r="H277" s="27"/>
+      <c r="I277" s="27"/>
+      <c r="J277" s="27"/>
+      <c r="K277" s="28"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C278" s="27"/>
+      <c r="D278" s="27"/>
+      <c r="E278" s="27"/>
+      <c r="F278" s="27"/>
+      <c r="G278" s="27"/>
+      <c r="H278" s="27"/>
+      <c r="I278" s="27"/>
+      <c r="J278" s="27"/>
+      <c r="K278" s="28"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="30"/>
+      <c r="K279" s="31"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B280" s="32">
+        <v>45208</v>
+      </c>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="33"/>
+      <c r="G280" s="33"/>
+      <c r="H280" s="33"/>
+      <c r="I280" s="33"/>
+      <c r="J280" s="33"/>
+      <c r="K280" s="34"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E282" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F282" s="38"/>
+      <c r="G282" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H282" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I282" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J282" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K282" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="36"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="36"/>
+      <c r="D283" s="36"/>
+      <c r="E283" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G283" s="40"/>
+      <c r="H283" s="40"/>
+      <c r="I283" s="36"/>
+      <c r="J283" s="42"/>
+      <c r="K283" s="36"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E284" s="19">
         <f>ROW(F1)</f>
         <v>1</v>
       </c>
-      <c r="F276" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H276" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I276" s="14"/>
-      <c r="J276" s="13"/>
-      <c r="K276" s="2"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B278" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C278" s="35"/>
-      <c r="D278" s="35"/>
-      <c r="E278" s="35"/>
-      <c r="F278" s="35"/>
-      <c r="G278" s="35"/>
-      <c r="H278" s="35"/>
-      <c r="I278" s="35"/>
-      <c r="J278" s="35"/>
-      <c r="K278" s="36"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B279" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C279" s="35"/>
-      <c r="D279" s="35"/>
-      <c r="E279" s="35"/>
-      <c r="F279" s="35"/>
-      <c r="G279" s="35"/>
-      <c r="H279" s="35"/>
-      <c r="I279" s="35"/>
-      <c r="J279" s="35"/>
-      <c r="K279" s="36"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B280" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-      <c r="F280" s="38"/>
-      <c r="G280" s="38"/>
-      <c r="H280" s="38"/>
-      <c r="I280" s="38"/>
-      <c r="J280" s="38"/>
-      <c r="K280" s="39"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B281" s="40">
-        <v>45208</v>
-      </c>
-      <c r="C281" s="41"/>
-      <c r="D281" s="41"/>
-      <c r="E281" s="41"/>
-      <c r="F281" s="41"/>
-      <c r="G281" s="41"/>
-      <c r="H281" s="41"/>
-      <c r="I281" s="41"/>
-      <c r="J281" s="41"/>
-      <c r="K281" s="42"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C283" s="43" t="s">
+      <c r="F284" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G284" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H284" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I284" s="21"/>
+      <c r="J284" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K284" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="21"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
+      <c r="E285" s="19">
+        <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="D283" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E283" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F283" s="46"/>
-      <c r="G283" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H283" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I283" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J283" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="K283" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="44"/>
-      <c r="B284" s="44"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="44"/>
-      <c r="E284" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F284" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G284" s="48"/>
-      <c r="H284" s="48"/>
-      <c r="I284" s="44"/>
-      <c r="J284" s="50"/>
-      <c r="K284" s="44"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B285" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D285" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E285" s="19">
-        <f>ROW(F1)</f>
-        <v>1</v>
-      </c>
       <c r="F285" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H285" s="51" t="s">
-        <v>180</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H285" s="23"/>
       <c r="I285" s="21"/>
       <c r="J285" s="22"/>
       <c r="K285" s="21"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="21"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
-      <c r="E286" s="19">
+      <c r="A286" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C286" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E286" s="2">
+        <f>ROW(F1)</f>
+        <v>1</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G286" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H286" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I286" s="21"/>
+      <c r="J286" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K286" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="21"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="22"/>
+      <c r="E287" s="2">
         <f>ROW(F2)</f>
         <v>2</v>
       </c>
-      <c r="F286" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G286" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H286" s="51"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="22"/>
-      <c r="K286" s="21"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B287" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C287" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D287" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E287" s="2">
-        <f>ROW(F1)</f>
-        <v>1</v>
-      </c>
       <c r="F287" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H287" s="51" t="s">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H287" s="23"/>
       <c r="I287" s="21"/>
       <c r="J287" s="22"/>
       <c r="K287" s="21"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="21"/>
-      <c r="B288" s="22"/>
-      <c r="C288" s="32"/>
-      <c r="D288" s="22"/>
-      <c r="E288" s="2">
-        <f>ROW(F2)</f>
-        <v>2</v>
-      </c>
-      <c r="F288" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G288" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H288" s="51"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="22"/>
-      <c r="K288" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="H285:H286"/>
-    <mergeCell ref="K285:K286"/>
-    <mergeCell ref="J285:J286"/>
-    <mergeCell ref="I285:I286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="H287:H288"/>
-    <mergeCell ref="I287:I288"/>
-    <mergeCell ref="J287:J288"/>
-    <mergeCell ref="K287:K288"/>
-    <mergeCell ref="B278:K278"/>
-    <mergeCell ref="B279:K279"/>
-    <mergeCell ref="B280:K280"/>
-    <mergeCell ref="B281:K281"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="H283:H284"/>
-    <mergeCell ref="I283:I284"/>
-    <mergeCell ref="J283:J284"/>
-    <mergeCell ref="K283:K284"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="B261:B267"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="D261:D267"/>
-    <mergeCell ref="H261:H267"/>
-    <mergeCell ref="I261:I267"/>
-    <mergeCell ref="J261:J267"/>
-    <mergeCell ref="K261:K267"/>
-    <mergeCell ref="A268:A274"/>
-    <mergeCell ref="B268:B274"/>
-    <mergeCell ref="C268:C274"/>
-    <mergeCell ref="D268:D274"/>
-    <mergeCell ref="H268:H274"/>
-    <mergeCell ref="I268:I274"/>
-    <mergeCell ref="J268:J274"/>
-    <mergeCell ref="K268:K274"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="D248:D253"/>
-    <mergeCell ref="H248:H253"/>
-    <mergeCell ref="I248:I253"/>
-    <mergeCell ref="J248:J253"/>
-    <mergeCell ref="K248:K253"/>
-    <mergeCell ref="A254:A260"/>
-    <mergeCell ref="B254:B260"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="D254:D260"/>
-    <mergeCell ref="H254:H260"/>
-    <mergeCell ref="I254:I260"/>
-    <mergeCell ref="J254:J260"/>
-    <mergeCell ref="K254:K260"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="I240:I242"/>
-    <mergeCell ref="J240:J242"/>
-    <mergeCell ref="K240:K242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="H243:H247"/>
-    <mergeCell ref="I243:I247"/>
-    <mergeCell ref="J243:J247"/>
-    <mergeCell ref="K243:K247"/>
-    <mergeCell ref="G232:G234"/>
-    <mergeCell ref="H232:H234"/>
-    <mergeCell ref="I232:I234"/>
-    <mergeCell ref="J235:J237"/>
-    <mergeCell ref="K235:K237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="H238:H239"/>
-    <mergeCell ref="I238:I239"/>
-    <mergeCell ref="J238:J239"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="E235:E237"/>
-    <mergeCell ref="F235:F237"/>
-    <mergeCell ref="G235:G237"/>
-    <mergeCell ref="H235:H237"/>
-    <mergeCell ref="I235:I237"/>
-    <mergeCell ref="J232:J234"/>
-    <mergeCell ref="K232:K234"/>
-    <mergeCell ref="A202:A215"/>
-    <mergeCell ref="B202:B215"/>
-    <mergeCell ref="C202:C215"/>
-    <mergeCell ref="D202:D215"/>
-    <mergeCell ref="H202:H215"/>
-    <mergeCell ref="I202:I215"/>
-    <mergeCell ref="J202:J215"/>
-    <mergeCell ref="K202:K215"/>
-    <mergeCell ref="A216:A229"/>
-    <mergeCell ref="B216:B229"/>
-    <mergeCell ref="C216:C229"/>
-    <mergeCell ref="D216:D229"/>
-    <mergeCell ref="H216:H229"/>
-    <mergeCell ref="I216:I229"/>
-    <mergeCell ref="J216:J229"/>
-    <mergeCell ref="K216:K229"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="F232:F234"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="B174:B187"/>
-    <mergeCell ref="C174:C187"/>
-    <mergeCell ref="D174:D187"/>
-    <mergeCell ref="H174:H187"/>
-    <mergeCell ref="I174:I187"/>
-    <mergeCell ref="J174:J187"/>
-    <mergeCell ref="K174:K187"/>
-    <mergeCell ref="A188:A201"/>
-    <mergeCell ref="B188:B201"/>
-    <mergeCell ref="C188:C201"/>
-    <mergeCell ref="D188:D201"/>
-    <mergeCell ref="H188:H201"/>
-    <mergeCell ref="I188:I201"/>
-    <mergeCell ref="J188:J201"/>
-    <mergeCell ref="K188:K201"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="J150:J156"/>
+    <mergeCell ref="K150:K156"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="B157:B163"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="D157:D163"/>
+    <mergeCell ref="H157:H163"/>
+    <mergeCell ref="I157:I163"/>
+    <mergeCell ref="J157:J163"/>
+    <mergeCell ref="K157:K163"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="H129:H131"/>
+    <mergeCell ref="I129:I131"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="A105:A116"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="C105:C116"/>
+    <mergeCell ref="D105:D116"/>
+    <mergeCell ref="H105:H116"/>
+    <mergeCell ref="I105:I116"/>
+    <mergeCell ref="J105:J116"/>
+    <mergeCell ref="K105:K116"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="I46:I50"/>
+    <mergeCell ref="C80:C91"/>
+    <mergeCell ref="D80:D91"/>
+    <mergeCell ref="H80:H91"/>
+    <mergeCell ref="I80:I91"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B67:B79"/>
+    <mergeCell ref="C67:C79"/>
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="H67:H79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="J67:J79"/>
+    <mergeCell ref="K67:K79"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J80:J91"/>
+    <mergeCell ref="K80:K91"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="A92:A104"/>
+    <mergeCell ref="B92:B104"/>
+    <mergeCell ref="C92:C104"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="H92:H104"/>
+    <mergeCell ref="I92:I104"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="B80:B91"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="C137:C142"/>
+    <mergeCell ref="D137:D142"/>
+    <mergeCell ref="H137:H142"/>
+    <mergeCell ref="I137:I142"/>
+    <mergeCell ref="J137:J142"/>
+    <mergeCell ref="K137:K142"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="H120:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="D150:D156"/>
+    <mergeCell ref="H150:H156"/>
+    <mergeCell ref="I150:I156"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="K132:K136"/>
     <mergeCell ref="K51:K55"/>
     <mergeCell ref="B167:K167"/>
     <mergeCell ref="B168:K168"/>
@@ -7499,237 +7639,146 @@
     <mergeCell ref="H143:H149"/>
     <mergeCell ref="D143:D149"/>
     <mergeCell ref="A150:A156"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="D150:D156"/>
-    <mergeCell ref="H150:H156"/>
-    <mergeCell ref="I150:I156"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="K132:K136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="C137:C142"/>
-    <mergeCell ref="D137:D142"/>
-    <mergeCell ref="H137:H142"/>
-    <mergeCell ref="I137:I142"/>
-    <mergeCell ref="J137:J142"/>
-    <mergeCell ref="K137:K142"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="H120:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J67:J79"/>
-    <mergeCell ref="K67:K79"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J80:J91"/>
-    <mergeCell ref="K80:K91"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="A92:A104"/>
-    <mergeCell ref="B92:B104"/>
-    <mergeCell ref="C92:C104"/>
-    <mergeCell ref="D92:D104"/>
-    <mergeCell ref="H92:H104"/>
-    <mergeCell ref="I92:I104"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="B80:B91"/>
-    <mergeCell ref="C80:C91"/>
-    <mergeCell ref="D80:D91"/>
-    <mergeCell ref="H80:H91"/>
-    <mergeCell ref="I80:I91"/>
-    <mergeCell ref="A67:A79"/>
-    <mergeCell ref="B67:B79"/>
-    <mergeCell ref="C67:C79"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="H67:H79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="I46:I50"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="J92:J104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C105:C116"/>
-    <mergeCell ref="D105:D116"/>
-    <mergeCell ref="H105:H116"/>
-    <mergeCell ref="I105:I116"/>
-    <mergeCell ref="J105:J116"/>
-    <mergeCell ref="K105:K116"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="K14:K19"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="J150:J156"/>
-    <mergeCell ref="K150:K156"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="B157:B163"/>
-    <mergeCell ref="C157:C163"/>
-    <mergeCell ref="D157:D163"/>
-    <mergeCell ref="H157:H163"/>
-    <mergeCell ref="I157:I163"/>
-    <mergeCell ref="J157:J163"/>
-    <mergeCell ref="K157:K163"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="H129:H131"/>
-    <mergeCell ref="I129:I131"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="H174:H187"/>
+    <mergeCell ref="I174:I187"/>
+    <mergeCell ref="J174:J187"/>
+    <mergeCell ref="K174:K187"/>
+    <mergeCell ref="A188:A201"/>
+    <mergeCell ref="B188:B201"/>
+    <mergeCell ref="C188:C201"/>
+    <mergeCell ref="D188:D201"/>
+    <mergeCell ref="H188:H201"/>
+    <mergeCell ref="I188:I201"/>
+    <mergeCell ref="J188:J201"/>
+    <mergeCell ref="K188:K201"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="D231:D233"/>
+    <mergeCell ref="E231:E233"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="B174:B187"/>
+    <mergeCell ref="C174:C187"/>
+    <mergeCell ref="D174:D187"/>
+    <mergeCell ref="A202:A215"/>
+    <mergeCell ref="B202:B215"/>
+    <mergeCell ref="C202:C215"/>
+    <mergeCell ref="D202:D215"/>
+    <mergeCell ref="H202:H215"/>
+    <mergeCell ref="I202:I215"/>
+    <mergeCell ref="J202:J215"/>
+    <mergeCell ref="K202:K215"/>
+    <mergeCell ref="A216:A229"/>
+    <mergeCell ref="B216:B229"/>
+    <mergeCell ref="C216:C229"/>
+    <mergeCell ref="D216:D229"/>
+    <mergeCell ref="H216:H229"/>
+    <mergeCell ref="I216:I229"/>
+    <mergeCell ref="J216:J229"/>
+    <mergeCell ref="K216:K229"/>
+    <mergeCell ref="G231:G233"/>
+    <mergeCell ref="H231:H233"/>
+    <mergeCell ref="I231:I233"/>
+    <mergeCell ref="J234:J236"/>
+    <mergeCell ref="K234:K236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="D234:D236"/>
+    <mergeCell ref="E234:E236"/>
+    <mergeCell ref="F234:F236"/>
+    <mergeCell ref="G234:G236"/>
+    <mergeCell ref="H234:H236"/>
+    <mergeCell ref="I234:I236"/>
+    <mergeCell ref="J231:J233"/>
+    <mergeCell ref="K231:K233"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="I239:I241"/>
+    <mergeCell ref="J239:J241"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="H242:H246"/>
+    <mergeCell ref="I242:I246"/>
+    <mergeCell ref="J242:J246"/>
+    <mergeCell ref="K242:K246"/>
+    <mergeCell ref="A247:A252"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C252"/>
+    <mergeCell ref="D247:D252"/>
+    <mergeCell ref="H247:H252"/>
+    <mergeCell ref="I247:I252"/>
+    <mergeCell ref="J247:J252"/>
+    <mergeCell ref="K247:K252"/>
+    <mergeCell ref="A253:A259"/>
+    <mergeCell ref="B253:B259"/>
+    <mergeCell ref="C253:C259"/>
+    <mergeCell ref="D253:D259"/>
+    <mergeCell ref="H253:H259"/>
+    <mergeCell ref="I253:I259"/>
+    <mergeCell ref="J253:J259"/>
+    <mergeCell ref="K253:K259"/>
+    <mergeCell ref="A260:A266"/>
+    <mergeCell ref="B260:B266"/>
+    <mergeCell ref="C260:C266"/>
+    <mergeCell ref="D260:D266"/>
+    <mergeCell ref="H260:H266"/>
+    <mergeCell ref="I260:I266"/>
+    <mergeCell ref="J260:J266"/>
+    <mergeCell ref="K260:K266"/>
+    <mergeCell ref="A267:A273"/>
+    <mergeCell ref="B267:B273"/>
+    <mergeCell ref="C267:C273"/>
+    <mergeCell ref="D267:D273"/>
+    <mergeCell ref="H267:H273"/>
+    <mergeCell ref="I267:I273"/>
+    <mergeCell ref="J267:J273"/>
+    <mergeCell ref="K267:K273"/>
+    <mergeCell ref="B277:K277"/>
+    <mergeCell ref="B278:K278"/>
+    <mergeCell ref="B279:K279"/>
+    <mergeCell ref="B280:K280"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="H282:H283"/>
+    <mergeCell ref="I282:I283"/>
+    <mergeCell ref="J282:J283"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="D284:D285"/>
+    <mergeCell ref="H284:H285"/>
+    <mergeCell ref="K284:K285"/>
+    <mergeCell ref="J284:J285"/>
+    <mergeCell ref="I284:I285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="H286:H287"/>
+    <mergeCell ref="I286:I287"/>
+    <mergeCell ref="J286:J287"/>
+    <mergeCell ref="K286:K287"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
